--- a/counts/ALS Mice/experimental/results/tg_1-tg_2/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_2/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="745">
   <si>
     <t>ID</t>
   </si>
@@ -75,12 +75,12 @@
     <t>mmu05418</t>
   </si>
   <si>
+    <t>mmu01230</t>
+  </si>
+  <si>
     <t>mmu00480</t>
   </si>
   <si>
-    <t>mmu01230</t>
-  </si>
-  <si>
     <t>mmu00511</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>mmu05166</t>
   </si>
   <si>
+    <t>mmu04146</t>
+  </si>
+  <si>
     <t>mmu04145</t>
   </si>
   <si>
-    <t>mmu04146</t>
-  </si>
-  <si>
     <t>mmu04137</t>
   </si>
   <si>
@@ -123,15 +123,12 @@
     <t>mmu00330</t>
   </si>
   <si>
-    <t>mmu05225</t>
+    <t>mmu04390</t>
   </si>
   <si>
     <t>mmu00260</t>
   </si>
   <si>
-    <t>mmu04390</t>
-  </si>
-  <si>
     <t>mmu03030</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
     <t>mmu00790</t>
   </si>
   <si>
+    <t>mmu00071</t>
+  </si>
+  <si>
     <t>mmu04210</t>
   </si>
   <si>
@@ -186,9 +186,6 @@
     <t>mmu05152</t>
   </si>
   <si>
-    <t>mmu00071</t>
-  </si>
-  <si>
     <t>mmu00604</t>
   </si>
   <si>
@@ -252,12 +249,12 @@
     <t>Fluid shear stress and atherosclerosis</t>
   </si>
   <si>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
     <t>Glutathione metabolism</t>
   </si>
   <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
     <t>Other glycan degradation</t>
   </si>
   <si>
@@ -276,12 +273,12 @@
     <t>HTLV-I infection</t>
   </si>
   <si>
+    <t>Peroxisome</t>
+  </si>
+  <si>
     <t>Phagosome</t>
   </si>
   <si>
-    <t>Peroxisome</t>
-  </si>
-  <si>
     <t>Mitophagy - animal</t>
   </si>
   <si>
@@ -300,15 +297,12 @@
     <t>Arginine and proline metabolism</t>
   </si>
   <si>
-    <t>Hepatocellular carcinoma</t>
+    <t>Hippo signaling pathway</t>
   </si>
   <si>
     <t>Glycine, serine and threonine metabolism</t>
   </si>
   <si>
-    <t>Hippo signaling pathway</t>
-  </si>
-  <si>
     <t>DNA replication</t>
   </si>
   <si>
@@ -345,6 +339,9 @@
     <t>Folate biosynthesis</t>
   </si>
   <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
     <t>Apoptosis</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>Tuberculosis</t>
   </si>
   <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
     <t>Glycosphingolipid biosynthesis - ganglio series</t>
   </si>
   <si>
@@ -396,286 +390,283 @@
     <t>Epstein-Barr virus infection</t>
   </si>
   <si>
-    <t>104/2980</t>
-  </si>
-  <si>
-    <t>109/2980</t>
-  </si>
-  <si>
-    <t>122/2980</t>
-  </si>
-  <si>
-    <t>127/2980</t>
-  </si>
-  <si>
-    <t>97/2980</t>
-  </si>
-  <si>
-    <t>107/2980</t>
-  </si>
-  <si>
-    <t>38/2980</t>
-  </si>
-  <si>
-    <t>77/2980</t>
-  </si>
-  <si>
-    <t>79/2980</t>
-  </si>
-  <si>
-    <t>81/2980</t>
-  </si>
-  <si>
-    <t>41/2980</t>
-  </si>
-  <si>
-    <t>49/2980</t>
-  </si>
-  <si>
-    <t>16/2980</t>
-  </si>
-  <si>
-    <t>24/2980</t>
-  </si>
-  <si>
-    <t>33/2980</t>
-  </si>
-  <si>
-    <t>58/2980</t>
-  </si>
-  <si>
-    <t>135/2980</t>
-  </si>
-  <si>
-    <t>92/2980</t>
-  </si>
-  <si>
-    <t>48/2980</t>
-  </si>
-  <si>
-    <t>45/2980</t>
-  </si>
-  <si>
-    <t>128/2980</t>
-  </si>
-  <si>
-    <t>22/2980</t>
-  </si>
-  <si>
-    <t>31/2980</t>
-  </si>
-  <si>
-    <t>85/2980</t>
-  </si>
-  <si>
-    <t>26/2980</t>
-  </si>
-  <si>
-    <t>78/2980</t>
-  </si>
-  <si>
-    <t>23/2980</t>
-  </si>
-  <si>
-    <t>27/2980</t>
-  </si>
-  <si>
-    <t>20/2980</t>
-  </si>
-  <si>
-    <t>86/2980</t>
-  </si>
-  <si>
-    <t>14/2980</t>
-  </si>
-  <si>
-    <t>32/2980</t>
-  </si>
-  <si>
-    <t>37/2980</t>
-  </si>
-  <si>
-    <t>18/2980</t>
-  </si>
-  <si>
-    <t>19/2980</t>
-  </si>
-  <si>
-    <t>17/2980</t>
-  </si>
-  <si>
-    <t>66/2980</t>
-  </si>
-  <si>
-    <t>34/2980</t>
-  </si>
-  <si>
-    <t>29/2980</t>
-  </si>
-  <si>
-    <t>83/2980</t>
-  </si>
-  <si>
-    <t>28/2980</t>
-  </si>
-  <si>
-    <t>11/2980</t>
-  </si>
-  <si>
-    <t>53/2980</t>
-  </si>
-  <si>
-    <t>44/2980</t>
-  </si>
-  <si>
-    <t>98/2980</t>
-  </si>
-  <si>
-    <t>134/8114</t>
-  </si>
-  <si>
-    <t>144/8114</t>
-  </si>
-  <si>
-    <t>177/8114</t>
-  </si>
-  <si>
-    <t>194/8114</t>
-  </si>
-  <si>
-    <t>151/8114</t>
-  </si>
-  <si>
-    <t>175/8114</t>
-  </si>
-  <si>
-    <t>46/8114</t>
-  </si>
-  <si>
-    <t>120/8114</t>
-  </si>
-  <si>
-    <t>124/8114</t>
-  </si>
-  <si>
-    <t>133/8114</t>
-  </si>
-  <si>
-    <t>142/8114</t>
-  </si>
-  <si>
-    <t>61/8114</t>
-  </si>
-  <si>
-    <t>77/8114</t>
-  </si>
-  <si>
-    <t>18/8114</t>
-  </si>
-  <si>
-    <t>32/8114</t>
-  </si>
-  <si>
-    <t>49/8114</t>
-  </si>
-  <si>
-    <t>101/8114</t>
-  </si>
-  <si>
-    <t>67/8114</t>
-  </si>
-  <si>
-    <t>282/8114</t>
-  </si>
-  <si>
-    <t>182/8114</t>
-  </si>
-  <si>
-    <t>84/8114</t>
-  </si>
-  <si>
-    <t>63/8114</t>
-  </si>
-  <si>
-    <t>78/8114</t>
-  </si>
-  <si>
-    <t>35/8114</t>
-  </si>
-  <si>
-    <t>270/8114</t>
-  </si>
-  <si>
-    <t>50/8114</t>
-  </si>
-  <si>
-    <t>170/8114</t>
-  </si>
-  <si>
-    <t>40/8114</t>
-  </si>
-  <si>
-    <t>154/8114</t>
-  </si>
-  <si>
-    <t>37/8114</t>
-  </si>
-  <si>
-    <t>44/8114</t>
-  </si>
-  <si>
-    <t>38/8114</t>
-  </si>
-  <si>
-    <t>30/8114</t>
-  </si>
-  <si>
-    <t>178/8114</t>
-  </si>
-  <si>
-    <t>19/8114</t>
-  </si>
-  <si>
-    <t>56/8114</t>
-  </si>
-  <si>
-    <t>27/8114</t>
-  </si>
-  <si>
-    <t>29/8114</t>
-  </si>
-  <si>
-    <t>26/8114</t>
-  </si>
-  <si>
-    <t>136/8114</t>
-  </si>
-  <si>
-    <t>167/8114</t>
-  </si>
-  <si>
-    <t>39/8114</t>
-  </si>
-  <si>
-    <t>52/8114</t>
-  </si>
-  <si>
-    <t>15/8114</t>
-  </si>
-  <si>
-    <t>33/8114</t>
-  </si>
-  <si>
-    <t>108/8114</t>
-  </si>
-  <si>
-    <t>87/8114</t>
-  </si>
-  <si>
-    <t>41/8114</t>
-  </si>
-  <si>
-    <t>220/8114</t>
+    <t>104/2971</t>
+  </si>
+  <si>
+    <t>109/2971</t>
+  </si>
+  <si>
+    <t>122/2971</t>
+  </si>
+  <si>
+    <t>127/2971</t>
+  </si>
+  <si>
+    <t>97/2971</t>
+  </si>
+  <si>
+    <t>107/2971</t>
+  </si>
+  <si>
+    <t>38/2971</t>
+  </si>
+  <si>
+    <t>77/2971</t>
+  </si>
+  <si>
+    <t>79/2971</t>
+  </si>
+  <si>
+    <t>81/2971</t>
+  </si>
+  <si>
+    <t>49/2971</t>
+  </si>
+  <si>
+    <t>41/2971</t>
+  </si>
+  <si>
+    <t>16/2971</t>
+  </si>
+  <si>
+    <t>24/2971</t>
+  </si>
+  <si>
+    <t>33/2971</t>
+  </si>
+  <si>
+    <t>58/2971</t>
+  </si>
+  <si>
+    <t>135/2971</t>
+  </si>
+  <si>
+    <t>48/2971</t>
+  </si>
+  <si>
+    <t>92/2971</t>
+  </si>
+  <si>
+    <t>45/2971</t>
+  </si>
+  <si>
+    <t>128/2971</t>
+  </si>
+  <si>
+    <t>22/2971</t>
+  </si>
+  <si>
+    <t>31/2971</t>
+  </si>
+  <si>
+    <t>78/2971</t>
+  </si>
+  <si>
+    <t>26/2971</t>
+  </si>
+  <si>
+    <t>23/2971</t>
+  </si>
+  <si>
+    <t>27/2971</t>
+  </si>
+  <si>
+    <t>20/2971</t>
+  </si>
+  <si>
+    <t>86/2971</t>
+  </si>
+  <si>
+    <t>14/2971</t>
+  </si>
+  <si>
+    <t>32/2971</t>
+  </si>
+  <si>
+    <t>37/2971</t>
+  </si>
+  <si>
+    <t>18/2971</t>
+  </si>
+  <si>
+    <t>19/2971</t>
+  </si>
+  <si>
+    <t>17/2971</t>
+  </si>
+  <si>
+    <t>28/2971</t>
+  </si>
+  <si>
+    <t>66/2971</t>
+  </si>
+  <si>
+    <t>34/2971</t>
+  </si>
+  <si>
+    <t>29/2971</t>
+  </si>
+  <si>
+    <t>83/2971</t>
+  </si>
+  <si>
+    <t>11/2971</t>
+  </si>
+  <si>
+    <t>53/2971</t>
+  </si>
+  <si>
+    <t>44/2971</t>
+  </si>
+  <si>
+    <t>98/2971</t>
+  </si>
+  <si>
+    <t>134/8092</t>
+  </si>
+  <si>
+    <t>144/8092</t>
+  </si>
+  <si>
+    <t>177/8092</t>
+  </si>
+  <si>
+    <t>194/8092</t>
+  </si>
+  <si>
+    <t>151/8092</t>
+  </si>
+  <si>
+    <t>175/8092</t>
+  </si>
+  <si>
+    <t>46/8092</t>
+  </si>
+  <si>
+    <t>119/8092</t>
+  </si>
+  <si>
+    <t>124/8092</t>
+  </si>
+  <si>
+    <t>133/8092</t>
+  </si>
+  <si>
+    <t>142/8092</t>
+  </si>
+  <si>
+    <t>76/8092</t>
+  </si>
+  <si>
+    <t>61/8092</t>
+  </si>
+  <si>
+    <t>18/8092</t>
+  </si>
+  <si>
+    <t>32/8092</t>
+  </si>
+  <si>
+    <t>49/8092</t>
+  </si>
+  <si>
+    <t>101/8092</t>
+  </si>
+  <si>
+    <t>66/8092</t>
+  </si>
+  <si>
+    <t>282/8092</t>
+  </si>
+  <si>
+    <t>83/8092</t>
+  </si>
+  <si>
+    <t>182/8092</t>
+  </si>
+  <si>
+    <t>63/8092</t>
+  </si>
+  <si>
+    <t>78/8092</t>
+  </si>
+  <si>
+    <t>35/8092</t>
+  </si>
+  <si>
+    <t>270/8092</t>
+  </si>
+  <si>
+    <t>50/8092</t>
+  </si>
+  <si>
+    <t>154/8092</t>
+  </si>
+  <si>
+    <t>40/8092</t>
+  </si>
+  <si>
+    <t>37/8092</t>
+  </si>
+  <si>
+    <t>44/8092</t>
+  </si>
+  <si>
+    <t>38/8092</t>
+  </si>
+  <si>
+    <t>30/8092</t>
+  </si>
+  <si>
+    <t>178/8092</t>
+  </si>
+  <si>
+    <t>19/8092</t>
+  </si>
+  <si>
+    <t>56/8092</t>
+  </si>
+  <si>
+    <t>67/8092</t>
+  </si>
+  <si>
+    <t>27/8092</t>
+  </si>
+  <si>
+    <t>29/8092</t>
+  </si>
+  <si>
+    <t>26/8092</t>
+  </si>
+  <si>
+    <t>136/8092</t>
+  </si>
+  <si>
+    <t>167/8092</t>
+  </si>
+  <si>
+    <t>39/8092</t>
+  </si>
+  <si>
+    <t>52/8092</t>
+  </si>
+  <si>
+    <t>15/8092</t>
+  </si>
+  <si>
+    <t>33/8092</t>
+  </si>
+  <si>
+    <t>108/8092</t>
+  </si>
+  <si>
+    <t>87/8092</t>
+  </si>
+  <si>
+    <t>41/8092</t>
+  </si>
+  <si>
+    <t>220/8092</t>
   </si>
   <si>
     <t>12858/66925/66108/11950/69875/68198/66043/66144/68349/11944/11951/11966/67680/84682/11972/226646/17991/67126/54405/12867/228033/54411/11973/11975/66414/67895/75406/66594/69802/67530/66945/407785/17993/66335/66218/67130/66445/68194/11957/28080/68202/78330/72900/11984/20463/66237/67264/11947/11946/12869/22273/11949/227197/66495/67273/68375/66046/74776/595136/17992/68197/12862/70316/67003/76429/104130/12857/12866/114143/108664/66916/71679/66091/12868/67184/110323/66377/17995/66694/57423/66290/76252/226139/68342/407790/12861/66416/70383/22272/12856/78174/11958/333182/66052/66152/225887/12859/67942/66576/17716/17708/17719/230075/12865</t>
@@ -711,12 +702,12 @@
     <t>18591/14871/103140/11651/19353/26400/50868/18104/14866/68312/11652/59004/56551/15368/13057/12387/12389/11848/56615/18412/18024/17969/20971/170758/12315/20610/20969/26399/16416/18613/170930/14281/13039/12159/15529/29857/15516/19252/19697/14873/68214/18590/22218/16178/18159/17970/66447/11477/20779/14865/22329/16800/22166/18127/18762/11461/21937/17390/18709/12562/75600/14860/19354/14872/14733/16399/20293/12314/15894/18707/14863/16476/26416/16598/14862/23938/22059/14870/11465/14867/11898</t>
   </si>
   <si>
+    <t>15929/13807/12974/18648/11676/71776/18641/20425/56421/21881/11429/76282/66194/109652/21991/12411/107272/18563/56454/209027/14718/108037/21351/109900/15926/14645/69051/170718/107869/11428/100678/257635/12035/269951/11674/12036/19139/14719/67834/18746/18642/108645/236539/19895/14433/433182/18655/13806/11898</t>
+  </si>
+  <si>
     <t>14871/103140/110175/14866/68312/23887/14598/20810/56615/18263/14778/69590/75475/14873/68214/15926/66447/207182/14854/14865/66073/67305/110208/76263/68396/269951/20133/14381/14782/14860/14872/16790/66988/14863/66116/14862/14870/14775/14867/20603/625249</t>
   </si>
   <si>
-    <t>15929/13807/12974/18648/11676/71776/18641/20425/56421/21881/11429/76282/66194/109652/21991/12411/107272/18563/56454/209027/14718/108037/21351/109900/15926/14645/69051/170718/107869/11428/100678/257635/12035/269951/11674/12036/19139/14719/67834/18746/18642/108645/236539/19895/14433/433182/18655/13806/11898</t>
-  </si>
-  <si>
     <t>17159/18010/66848/15212/15211/14466/110173/230101/71665/17160/11593/73744/217364/238023/12091/23956</t>
   </si>
   <si>
@@ -735,12 +726,12 @@
     <t>12444/16414/16818/18591/11651/20375/71810/21803/19698/382056/12317/12028/20850/11652/18747/19385/107995/12567/12387/12048/22335/234729/20807/22411/14991/11740/21939/21423/12330/22333/30939/18972/14534/53859/18035/14281/21809/17702/210044/22334/104110/14368/11514/22422/224129/23872/56310/73181/16992/240095/18596/69745/81601/19697/66156/15461/18590/16178/22409/13714/11910/16184/99152/18538/13555/18019/74343/22329/59001/12580/20525/13542/52206/19384/56317/59008/93735/66979/22421/22419/17000/21937/16408/16186/11739/16168/18709/23871/17127/17532/18018/22420/12445/15015/14960/22417/14370/22423/15894/15000/14998/13654/20130/69957/13653/18971/21808/18707/15002/12257/11911/22695/17701/14371/57265/16476/15039/22059/110196/14969/14972/66440/12237/15040/72049/12443/667977/14963/14964/14961/12579/15024/14999/93897/15013</t>
   </si>
   <si>
+    <t>59038/224824/19298/19305/235674/170789/19193/18634/23986/93732/13850/28200/17117/20524/20655/15488/54683/433256/15926/111175/12908/18633/68603/18632/19299/20280/15356/18477/56273/668173/80911/19301/76263/330450/269951/18631/11666/110959/234384/113868/26378/19302/17855/13142/51798/74043/69129/56690</t>
+  </si>
+  <si>
     <t>16414/16402/19344/67951/22154/19353/12317/66144/11966/13057/17113/11972/14129/17969/14991/54411/19345/11973/11975/12330/16416/17534/13039/66335/16419/22143/11984/12266/21355/66237/240095/15239/16412/22145/17970/14130/17533/20333/24088/22319/71116/11461/13426/53421/53857/12721/16409/16783/235661/114143/225326/108664/15015/140792/14960/227613/21354/15000/14998/20778/280408/13040/66290/76252/15002/22146/73710/12475/21899/66212/50909/15039/22151/14131/14969/14972/22152/22153/11465/15040/17972/22142/667977/14963/14964/14961/20335/56644/19349/15024/14999/15013</t>
   </si>
   <si>
-    <t>59038/224824/19298/19305/235674/170789/19193/18634/23986/93732/13850/28200/17117/20524/20655/15488/54683/433256/15926/111175/12908/18633/68603/18632/19299/20280/15356/18477/56273/668173/80911/19301/76263/330450/269951/18631/11666/110959/234384/113868/26378/19302/17855/13142/51798/74043/69129/56690</t>
-  </si>
-  <si>
     <t>209446/12048/18412/56486/66437/22187/12177/50873/21425/13001/19697/72018/15461/214952/71648/13555/20779/68943/66169/170731/100756/57436/93739/17532/56208/11793/213948/20130/233204/17684/228361/11911/13000/16476/22059/12995/12176/19349</t>
   </si>
   <si>
@@ -759,15 +750,12 @@
     <t>12716/12709/19125/20810/11671/18263/66194/66054/56454/17161/209027/67432/14718/69051/56752/228608/212647/242669/18127/11669/12715/18242/14719/72535/66988/109731/75986/13142/110695/69215/20603</t>
   </si>
   <si>
-    <t>12006/21414/232223/20587/14871/103140/11651/21803/50868/18104/12028/14866/68312/11652/15368/12567/12387/12048/56615/17873/18024/22411/50493/21809/23882/14368/22422/83797/12005/16973/12015/21416/14873/68214/68094/15461/22409/66447/13555/56456/14865/16842/66993/13542/11461/93735/83766/22421/22419/29861/18709/20586/14860/17127/22420/14872/234779/26396/13197/22417/14370/22423/57376/21808/18707/14863/20416/212398/16002/14371/57265/21415/12018/14862/22059/14784/14870/11465/26417/14296/14867/12443/26462/18752/93897</t>
+    <t>12006/12444/16414/12550/21414/170770/21678/21803/19047/56513/12387/51792/12162/19053/56289/22411/54401/211652/22629/14219/16897/217325/22627/13385/21809/12159/71978/16475/22631/14368/22422/12005/21416/104318/29806/17131/22409/16842/22062/18762/13542/73246/11461/93735/22421/22419/21679/21677/93960/73699/17127/22420/12445/11705/241324/101543/14164/22417/14370/22423/18787/12161/21808/19045/52432/58220/14371/57265/22628/22601/21415/93737/12695/11465/12443/20674/22630/93897</t>
   </si>
   <si>
     <t>14711/192166/18648/19193/71776/11754/20425/12411/107272/104174/17161/11656/108037/107869/100678/257635/434437/11655/68133/76238/12183/109731/13142/74129/236539/110695</t>
   </si>
   <si>
-    <t>12006/12444/16414/12550/21414/170770/21678/21803/19047/56513/12387/51792/12162/19053/56289/22411/54401/211652/22629/14219/16897/217325/22627/13385/21809/12159/71978/16475/22631/14368/22422/12005/21416/104318/29806/17131/22409/16842/22062/18762/13542/73246/11461/93735/22421/22419/21679/21677/93960/73699/17127/22420/12445/11705/241324/101543/14164/22417/14370/22423/18787/12161/21808/19045/52432/58220/14371/57265/22628/22601/21415/93737/12695/11465/12443/20674/22630/93897</t>
-  </si>
-  <si>
     <t>68275/17216/17218/18972/106344/19718/14156/18969/69745/68209/19076/17219/18538/59001/19891/72151/17220/66979/69263/18971/17215/69724/16881</t>
   </si>
   <si>
@@ -804,6 +792,9 @@
     <t>21823/11677/14287/17434/110391/13180/72562/11647/14187/19286/20751/14528/68591/12408/67861/56738/14590</t>
   </si>
   <si>
+    <t>270076/78070/11671/235674/11370/23986/110460/13177/12894/433256/93747/97212/11363/56752/15107/11532/12896/80911/11669/11409/110446/94180/72535/113868/52538/110695/231086/11522</t>
+  </si>
+  <si>
     <t>11651/170770/13163/12028/11652/12122/12048/13033/17873/13804/64138/18952/53859/18035/14281/23882/13039/13030/21933/22143/19697/12333/12015/12369/13198/15461/57913/12370/22145/11545/22030/18049/16905/18211/12371/13347/66593/11461/53857/21937/14082/18709/71609/11796/13036/26396/13197/26926/17210/13040/22035/18707/11911/22146/16476/12018/22059/16907/11465/26417/13063/64704/16188/12984/22142/56464</t>
   </si>
   <si>
@@ -822,9 +813,6 @@
     <t>16414/19344/11651/21803/12028/11652/12122/11848/13033/11972/14129/16803/16985/54411/19345/11975/12315/15979/17534/21809/12325/29857/15980/16155/11984/12266/15526/16149/19697/12015/12370/20846/14130/17533/20779/24088/12042/12795/12371/21937/12721/16409/16411/14082/16783/71609/16154/75600/17874/18046/114143/225326/108664/19727/12314/14960/170767/15000/14998/13040/21808/192656/15002/21897/12475/21899/26416/257632/12608/56632/12323/14127/14131/266632/108960/14969/20698/26417/13063/14961/56644/19349/14999</t>
   </si>
   <si>
-    <t>270076/78070/11671/235674/11370/23986/110460/13177/12894/433256/93747/97212/11363/56752/15107/11532/12896/80911/11669/11409/110446/94180/72535/113868/52538/110695/231086/11522</t>
-  </si>
-  <si>
     <t>14421/15212/15211/225742/50935/11416/20444/12091/20454/54218/20448</t>
   </si>
   <si>
@@ -882,18 +870,18 @@
     <t>mmu04070</t>
   </si>
   <si>
+    <t>mmu04020</t>
+  </si>
+  <si>
     <t>mmu01521</t>
   </si>
   <si>
-    <t>mmu04020</t>
+    <t>mmu04014</t>
   </si>
   <si>
     <t>mmu05231</t>
   </si>
   <si>
-    <t>mmu04014</t>
-  </si>
-  <si>
     <t>mmu01522</t>
   </si>
   <si>
@@ -951,6 +939,9 @@
     <t>mmu04150</t>
   </si>
   <si>
+    <t>mmu05215</t>
+  </si>
+  <si>
     <t>mmu05033</t>
   </si>
   <si>
@@ -972,9 +963,6 @@
     <t>mmu00310</t>
   </si>
   <si>
-    <t>mmu05215</t>
-  </si>
-  <si>
     <t>mmu04727</t>
   </si>
   <si>
@@ -1020,12 +1008,12 @@
     <t>mmu04110</t>
   </si>
   <si>
+    <t>mmu04218</t>
+  </si>
+  <si>
     <t>mmu04931</t>
   </si>
   <si>
-    <t>mmu04218</t>
-  </si>
-  <si>
     <t>mmu05161</t>
   </si>
   <si>
@@ -1068,15 +1056,15 @@
     <t>mmu05218</t>
   </si>
   <si>
+    <t>mmu05211</t>
+  </si>
+  <si>
     <t>mmu04270</t>
   </si>
   <si>
     <t>mmu05210</t>
   </si>
   <si>
-    <t>mmu05211</t>
-  </si>
-  <si>
     <t>mmu05412</t>
   </si>
   <si>
@@ -1101,33 +1089,33 @@
     <t>mmu04071</t>
   </si>
   <si>
+    <t>mmu04530</t>
+  </si>
+  <si>
+    <t>mmu04971</t>
+  </si>
+  <si>
+    <t>mmu03440</t>
+  </si>
+  <si>
+    <t>mmu04350</t>
+  </si>
+  <si>
+    <t>mmu04911</t>
+  </si>
+  <si>
+    <t>mmu04917</t>
+  </si>
+  <si>
+    <t>mmu04924</t>
+  </si>
+  <si>
+    <t>mmu04925</t>
+  </si>
+  <si>
     <t>mmu04066</t>
   </si>
   <si>
-    <t>mmu03440</t>
-  </si>
-  <si>
-    <t>mmu04530</t>
-  </si>
-  <si>
-    <t>mmu04971</t>
-  </si>
-  <si>
-    <t>mmu04350</t>
-  </si>
-  <si>
-    <t>mmu04911</t>
-  </si>
-  <si>
-    <t>mmu04917</t>
-  </si>
-  <si>
-    <t>mmu04924</t>
-  </si>
-  <si>
-    <t>mmu04925</t>
-  </si>
-  <si>
     <t>mmu02010</t>
   </si>
   <si>
@@ -1167,18 +1155,18 @@
     <t>mmu04662</t>
   </si>
   <si>
+    <t>mmu05202</t>
+  </si>
+  <si>
+    <t>mmu04115</t>
+  </si>
+  <si>
+    <t>mmu05414</t>
+  </si>
+  <si>
     <t>mmu03018</t>
   </si>
   <si>
-    <t>mmu05202</t>
-  </si>
-  <si>
-    <t>mmu04115</t>
-  </si>
-  <si>
-    <t>mmu05414</t>
-  </si>
-  <si>
     <t>mmu03015</t>
   </si>
   <si>
@@ -1218,18 +1206,18 @@
     <t>Phosphatidylinositol signaling system</t>
   </si>
   <si>
+    <t>Calcium signaling pathway</t>
+  </si>
+  <si>
     <t>EGFR tyrosine kinase inhibitor resistance</t>
   </si>
   <si>
-    <t>Calcium signaling pathway</t>
+    <t>Ras signaling pathway</t>
   </si>
   <si>
     <t>Choline metabolism in cancer</t>
   </si>
   <si>
-    <t>Ras signaling pathway</t>
-  </si>
-  <si>
     <t>Endocrine resistance</t>
   </si>
   <si>
@@ -1287,6 +1275,9 @@
     <t>mTOR signaling pathway</t>
   </si>
   <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
     <t>Nicotine addiction</t>
   </si>
   <si>
@@ -1308,9 +1299,6 @@
     <t>Lysine degradation</t>
   </si>
   <si>
-    <t>Prostate cancer</t>
-  </si>
-  <si>
     <t>GABAergic synapse</t>
   </si>
   <si>
@@ -1356,12 +1344,12 @@
     <t>Cell cycle</t>
   </si>
   <si>
+    <t>Cellular senescence</t>
+  </si>
+  <si>
     <t>Insulin resistance</t>
   </si>
   <si>
-    <t>Cellular senescence</t>
-  </si>
-  <si>
     <t>Hepatitis B</t>
   </si>
   <si>
@@ -1404,15 +1392,15 @@
     <t>Melanoma</t>
   </si>
   <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
     <t>Vascular smooth muscle contraction</t>
   </si>
   <si>
     <t>Colorectal cancer</t>
   </si>
   <si>
-    <t>Renal cell carcinoma</t>
-  </si>
-  <si>
     <t>Arrhythmogenic right ventricular cardiomyopathy (ARVC)</t>
   </si>
   <si>
@@ -1437,33 +1425,33 @@
     <t>Sphingolipid signaling pathway</t>
   </si>
   <si>
+    <t>Tight junction</t>
+  </si>
+  <si>
+    <t>Gastric acid secretion</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>TGF-beta signaling pathway</t>
+  </si>
+  <si>
+    <t>Insulin secretion</t>
+  </si>
+  <si>
+    <t>Prolactin signaling pathway</t>
+  </si>
+  <si>
+    <t>Renin secretion</t>
+  </si>
+  <si>
+    <t>Aldosterone synthesis and secretion</t>
+  </si>
+  <si>
     <t>HIF-1 signaling pathway</t>
   </si>
   <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>Tight junction</t>
-  </si>
-  <si>
-    <t>Gastric acid secretion</t>
-  </si>
-  <si>
-    <t>TGF-beta signaling pathway</t>
-  </si>
-  <si>
-    <t>Insulin secretion</t>
-  </si>
-  <si>
-    <t>Prolactin signaling pathway</t>
-  </si>
-  <si>
-    <t>Renin secretion</t>
-  </si>
-  <si>
-    <t>Aldosterone synthesis and secretion</t>
-  </si>
-  <si>
     <t>ABC transporters</t>
   </si>
   <si>
@@ -1503,18 +1491,18 @@
     <t>B cell receptor signaling pathway</t>
   </si>
   <si>
+    <t>Transcriptional misregulation in cancer</t>
+  </si>
+  <si>
+    <t>p53 signaling pathway</t>
+  </si>
+  <si>
+    <t>Dilated cardiomyopathy (DCM)</t>
+  </si>
+  <si>
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>Transcriptional misregulation in cancer</t>
-  </si>
-  <si>
-    <t>p53 signaling pathway</t>
-  </si>
-  <si>
-    <t>Dilated cardiomyopathy (DCM)</t>
-  </si>
-  <si>
     <t>mRNA surveillance pathway</t>
   </si>
   <si>
@@ -1527,391 +1515,382 @@
     <t>Synaptic vesicle cycle</t>
   </si>
   <si>
-    <t>196/2461</t>
-  </si>
-  <si>
-    <t>57/2461</t>
-  </si>
-  <si>
-    <t>128/2461</t>
-  </si>
-  <si>
-    <t>76/2461</t>
-  </si>
-  <si>
-    <t>104/2461</t>
-  </si>
-  <si>
-    <t>94/2461</t>
-  </si>
-  <si>
-    <t>68/2461</t>
-  </si>
-  <si>
-    <t>60/2461</t>
-  </si>
-  <si>
-    <t>51/2461</t>
-  </si>
-  <si>
-    <t>95/2461</t>
-  </si>
-  <si>
-    <t>59/2461</t>
-  </si>
-  <si>
-    <t>112/2461</t>
-  </si>
-  <si>
-    <t>56/2461</t>
-  </si>
-  <si>
-    <t>99/2461</t>
-  </si>
-  <si>
-    <t>41/2461</t>
-  </si>
-  <si>
-    <t>157/2461</t>
-  </si>
-  <si>
-    <t>55/2461</t>
-  </si>
-  <si>
-    <t>45/2461</t>
-  </si>
-  <si>
-    <t>153/2461</t>
-  </si>
-  <si>
-    <t>79/2461</t>
-  </si>
-  <si>
-    <t>75/2461</t>
-  </si>
-  <si>
-    <t>101/2461</t>
-  </si>
-  <si>
-    <t>53/2461</t>
-  </si>
-  <si>
-    <t>44/2461</t>
-  </si>
-  <si>
-    <t>27/2461</t>
-  </si>
-  <si>
-    <t>37/2461</t>
-  </si>
-  <si>
-    <t>58/2461</t>
-  </si>
-  <si>
-    <t>66/2461</t>
-  </si>
-  <si>
-    <t>35/2461</t>
-  </si>
-  <si>
-    <t>47/2461</t>
-  </si>
-  <si>
-    <t>64/2461</t>
-  </si>
-  <si>
-    <t>39/2461</t>
-  </si>
-  <si>
-    <t>61/2461</t>
-  </si>
-  <si>
-    <t>46/2461</t>
-  </si>
-  <si>
-    <t>82/2461</t>
-  </si>
-  <si>
-    <t>117/2461</t>
-  </si>
-  <si>
-    <t>28/2461</t>
-  </si>
-  <si>
-    <t>43/2461</t>
-  </si>
-  <si>
-    <t>110/2461</t>
-  </si>
-  <si>
-    <t>48/2461</t>
-  </si>
-  <si>
-    <t>30/2461</t>
-  </si>
-  <si>
-    <t>31/2461</t>
-  </si>
-  <si>
-    <t>65/2461</t>
-  </si>
-  <si>
-    <t>38/2461</t>
-  </si>
-  <si>
-    <t>36/2461</t>
-  </si>
-  <si>
-    <t>40/2461</t>
-  </si>
-  <si>
-    <t>26/2461</t>
-  </si>
-  <si>
-    <t>72/2461</t>
-  </si>
-  <si>
-    <t>52/2461</t>
-  </si>
-  <si>
-    <t>62/2461</t>
-  </si>
-  <si>
-    <t>22/2461</t>
-  </si>
-  <si>
-    <t>69/2461</t>
-  </si>
-  <si>
-    <t>34/2461</t>
-  </si>
-  <si>
-    <t>24/2461</t>
-  </si>
-  <si>
-    <t>32/2461</t>
-  </si>
-  <si>
-    <t>17/2461</t>
-  </si>
-  <si>
-    <t>21/2461</t>
-  </si>
-  <si>
-    <t>67/2461</t>
-  </si>
-  <si>
-    <t>71/2461</t>
-  </si>
-  <si>
-    <t>83/2461</t>
-  </si>
-  <si>
-    <t>42/2461</t>
-  </si>
-  <si>
-    <t>394/8114</t>
-  </si>
-  <si>
-    <t>85/8114</t>
-  </si>
-  <si>
-    <t>252/8114</t>
-  </si>
-  <si>
-    <t>130/8114</t>
-  </si>
-  <si>
-    <t>199/8114</t>
-  </si>
-  <si>
-    <t>132/8114</t>
-  </si>
-  <si>
-    <t>114/8114</t>
-  </si>
-  <si>
-    <t>98/8114</t>
-  </si>
-  <si>
-    <t>80/8114</t>
-  </si>
-  <si>
-    <t>183/8114</t>
-  </si>
-  <si>
-    <t>99/8114</t>
-  </si>
-  <si>
-    <t>228/8114</t>
-  </si>
-  <si>
-    <t>93/8114</t>
-  </si>
-  <si>
-    <t>197/8114</t>
-  </si>
-  <si>
-    <t>350/8114</t>
-  </si>
-  <si>
-    <t>92/8114</t>
-  </si>
-  <si>
-    <t>72/8114</t>
-  </si>
-  <si>
-    <t>346/8114</t>
-  </si>
-  <si>
-    <t>153/8114</t>
-  </si>
-  <si>
-    <t>206/8114</t>
-  </si>
-  <si>
-    <t>147/8114</t>
-  </si>
-  <si>
-    <t>214/8114</t>
-  </si>
-  <si>
-    <t>90/8114</t>
-  </si>
-  <si>
-    <t>96/8114</t>
-  </si>
-  <si>
-    <t>75/8114</t>
-  </si>
-  <si>
-    <t>137/8114</t>
-  </si>
-  <si>
-    <t>62/8114</t>
-  </si>
-  <si>
-    <t>115/8114</t>
-  </si>
-  <si>
-    <t>113/8114</t>
-  </si>
-  <si>
-    <t>59/8114</t>
-  </si>
-  <si>
-    <t>97/8114</t>
-  </si>
-  <si>
-    <t>88/8114</t>
-  </si>
-  <si>
-    <t>141/8114</t>
-  </si>
-  <si>
-    <t>131/8114</t>
-  </si>
-  <si>
-    <t>213/8114</t>
-  </si>
-  <si>
-    <t>66/8114</t>
-  </si>
-  <si>
-    <t>71/8114</t>
-  </si>
-  <si>
-    <t>126/8114</t>
-  </si>
-  <si>
-    <t>140/8114</t>
-  </si>
-  <si>
-    <t>168/8114</t>
-  </si>
-  <si>
-    <t>121/8114</t>
-  </si>
-  <si>
-    <t>109/8114</t>
-  </si>
-  <si>
-    <t>186/8114</t>
-  </si>
-  <si>
-    <t>143/8114</t>
-  </si>
-  <si>
-    <t>89/8114</t>
-  </si>
-  <si>
-    <t>285/8114</t>
-  </si>
-  <si>
-    <t>139/8114</t>
-  </si>
-  <si>
-    <t>86/8114</t>
-  </si>
-  <si>
-    <t>100/8114</t>
-  </si>
-  <si>
-    <t>55/8114</t>
-  </si>
-  <si>
-    <t>58/8114</t>
-  </si>
-  <si>
-    <t>51/8114</t>
-  </si>
-  <si>
-    <t>76/8114</t>
-  </si>
-  <si>
-    <t>129/8114</t>
-  </si>
-  <si>
-    <t>74/8114</t>
-  </si>
-  <si>
-    <t>69/8114</t>
-  </si>
-  <si>
-    <t>83/8114</t>
-  </si>
-  <si>
-    <t>48/8114</t>
-  </si>
-  <si>
-    <t>116/8114</t>
-  </si>
-  <si>
-    <t>150/8114</t>
-  </si>
-  <si>
-    <t>146/8114</t>
-  </si>
-  <si>
-    <t>122/8114</t>
-  </si>
-  <si>
-    <t>106/8114</t>
-  </si>
-  <si>
-    <t>47/8114</t>
-  </si>
-  <si>
-    <t>68/8114</t>
-  </si>
-  <si>
-    <t>31/8114</t>
-  </si>
-  <si>
-    <t>103/8114</t>
-  </si>
-  <si>
-    <t>102/8114</t>
+    <t>196/2450</t>
+  </si>
+  <si>
+    <t>57/2450</t>
+  </si>
+  <si>
+    <t>128/2450</t>
+  </si>
+  <si>
+    <t>76/2450</t>
+  </si>
+  <si>
+    <t>104/2450</t>
+  </si>
+  <si>
+    <t>94/2450</t>
+  </si>
+  <si>
+    <t>68/2450</t>
+  </si>
+  <si>
+    <t>60/2450</t>
+  </si>
+  <si>
+    <t>95/2450</t>
+  </si>
+  <si>
+    <t>51/2450</t>
+  </si>
+  <si>
+    <t>112/2450</t>
+  </si>
+  <si>
+    <t>59/2450</t>
+  </si>
+  <si>
+    <t>56/2450</t>
+  </si>
+  <si>
+    <t>99/2450</t>
+  </si>
+  <si>
+    <t>41/2450</t>
+  </si>
+  <si>
+    <t>157/2450</t>
+  </si>
+  <si>
+    <t>55/2450</t>
+  </si>
+  <si>
+    <t>45/2450</t>
+  </si>
+  <si>
+    <t>153/2450</t>
+  </si>
+  <si>
+    <t>79/2450</t>
+  </si>
+  <si>
+    <t>75/2450</t>
+  </si>
+  <si>
+    <t>101/2450</t>
+  </si>
+  <si>
+    <t>53/2450</t>
+  </si>
+  <si>
+    <t>44/2450</t>
+  </si>
+  <si>
+    <t>48/2450</t>
+  </si>
+  <si>
+    <t>27/2450</t>
+  </si>
+  <si>
+    <t>37/2450</t>
+  </si>
+  <si>
+    <t>58/2450</t>
+  </si>
+  <si>
+    <t>66/2450</t>
+  </si>
+  <si>
+    <t>35/2450</t>
+  </si>
+  <si>
+    <t>47/2450</t>
+  </si>
+  <si>
+    <t>64/2450</t>
+  </si>
+  <si>
+    <t>39/2450</t>
+  </si>
+  <si>
+    <t>61/2450</t>
+  </si>
+  <si>
+    <t>46/2450</t>
+  </si>
+  <si>
+    <t>82/2450</t>
+  </si>
+  <si>
+    <t>117/2450</t>
+  </si>
+  <si>
+    <t>28/2450</t>
+  </si>
+  <si>
+    <t>43/2450</t>
+  </si>
+  <si>
+    <t>110/2450</t>
+  </si>
+  <si>
+    <t>30/2450</t>
+  </si>
+  <si>
+    <t>31/2450</t>
+  </si>
+  <si>
+    <t>65/2450</t>
+  </si>
+  <si>
+    <t>38/2450</t>
+  </si>
+  <si>
+    <t>34/2450</t>
+  </si>
+  <si>
+    <t>36/2450</t>
+  </si>
+  <si>
+    <t>40/2450</t>
+  </si>
+  <si>
+    <t>26/2450</t>
+  </si>
+  <si>
+    <t>52/2450</t>
+  </si>
+  <si>
+    <t>62/2450</t>
+  </si>
+  <si>
+    <t>69/2450</t>
+  </si>
+  <si>
+    <t>22/2450</t>
+  </si>
+  <si>
+    <t>24/2450</t>
+  </si>
+  <si>
+    <t>32/2450</t>
+  </si>
+  <si>
+    <t>17/2450</t>
+  </si>
+  <si>
+    <t>21/2450</t>
+  </si>
+  <si>
+    <t>67/2450</t>
+  </si>
+  <si>
+    <t>71/2450</t>
+  </si>
+  <si>
+    <t>83/2450</t>
+  </si>
+  <si>
+    <t>42/2450</t>
+  </si>
+  <si>
+    <t>394/8092</t>
+  </si>
+  <si>
+    <t>85/8092</t>
+  </si>
+  <si>
+    <t>252/8092</t>
+  </si>
+  <si>
+    <t>130/8092</t>
+  </si>
+  <si>
+    <t>199/8092</t>
+  </si>
+  <si>
+    <t>132/8092</t>
+  </si>
+  <si>
+    <t>114/8092</t>
+  </si>
+  <si>
+    <t>98/8092</t>
+  </si>
+  <si>
+    <t>183/8092</t>
+  </si>
+  <si>
+    <t>80/8092</t>
+  </si>
+  <si>
+    <t>228/8092</t>
+  </si>
+  <si>
+    <t>99/8092</t>
+  </si>
+  <si>
+    <t>93/8092</t>
+  </si>
+  <si>
+    <t>197/8092</t>
+  </si>
+  <si>
+    <t>350/8092</t>
+  </si>
+  <si>
+    <t>92/8092</t>
+  </si>
+  <si>
+    <t>72/8092</t>
+  </si>
+  <si>
+    <t>346/8092</t>
+  </si>
+  <si>
+    <t>153/8092</t>
+  </si>
+  <si>
+    <t>206/8092</t>
+  </si>
+  <si>
+    <t>147/8092</t>
+  </si>
+  <si>
+    <t>214/8092</t>
+  </si>
+  <si>
+    <t>90/8092</t>
+  </si>
+  <si>
+    <t>96/8092</t>
+  </si>
+  <si>
+    <t>75/8092</t>
+  </si>
+  <si>
+    <t>137/8092</t>
+  </si>
+  <si>
+    <t>62/8092</t>
+  </si>
+  <si>
+    <t>115/8092</t>
+  </si>
+  <si>
+    <t>113/8092</t>
+  </si>
+  <si>
+    <t>59/8092</t>
+  </si>
+  <si>
+    <t>88/8092</t>
+  </si>
+  <si>
+    <t>141/8092</t>
+  </si>
+  <si>
+    <t>131/8092</t>
+  </si>
+  <si>
+    <t>213/8092</t>
+  </si>
+  <si>
+    <t>71/8092</t>
+  </si>
+  <si>
+    <t>126/8092</t>
+  </si>
+  <si>
+    <t>140/8092</t>
+  </si>
+  <si>
+    <t>168/8092</t>
+  </si>
+  <si>
+    <t>121/8092</t>
+  </si>
+  <si>
+    <t>186/8092</t>
+  </si>
+  <si>
+    <t>109/8092</t>
+  </si>
+  <si>
+    <t>143/8092</t>
+  </si>
+  <si>
+    <t>89/8092</t>
+  </si>
+  <si>
+    <t>285/8092</t>
+  </si>
+  <si>
+    <t>139/8092</t>
+  </si>
+  <si>
+    <t>86/8092</t>
+  </si>
+  <si>
+    <t>100/8092</t>
+  </si>
+  <si>
+    <t>55/8092</t>
+  </si>
+  <si>
+    <t>58/8092</t>
+  </si>
+  <si>
+    <t>51/8092</t>
+  </si>
+  <si>
+    <t>129/8092</t>
+  </si>
+  <si>
+    <t>74/8092</t>
+  </si>
+  <si>
+    <t>48/8092</t>
+  </si>
+  <si>
+    <t>116/8092</t>
+  </si>
+  <si>
+    <t>150/8092</t>
+  </si>
+  <si>
+    <t>146/8092</t>
+  </si>
+  <si>
+    <t>122/8092</t>
+  </si>
+  <si>
+    <t>105/8092</t>
+  </si>
+  <si>
+    <t>47/8092</t>
+  </si>
+  <si>
+    <t>97/8092</t>
+  </si>
+  <si>
+    <t>68/8092</t>
+  </si>
+  <si>
+    <t>31/8092</t>
+  </si>
+  <si>
+    <t>103/8092</t>
+  </si>
+  <si>
+    <t>69/8092</t>
+  </si>
+  <si>
+    <t>82/8092</t>
+  </si>
+  <si>
+    <t>102/8092</t>
   </si>
   <si>
     <t>22415/216795/110157/11836/109880/12576/13544/20848/16151/26395/18749/17688/16001/11515/16590/11789/108989/12929/12395/21812/14365/56044/17295/19211/17686/11863/16398/16776/11864/13557/18803/218772/11799/17395/12928/58231/242705/19216/23797/15182/16773/17311/22027/16000/13649/23805/17246/26420/432530/19878/14674/104111/18126/13543/20851/15251/15519/22031/19206/69635/14165/26419/22418/19645/13618/17869/12914/14167/14083/208650/21787/56637/11512/12575/22339/19765/13819/71745/20662/19877/16774/17128/17126/14682/14102/12675/18034/24069/12566/17344/14169/11798/14268/54354/226519/19730/11350/22029/16410/16403/22034/14178/19419/12156/14683/18706/14696/14013/22414/18176/13645/18033/12448/16451/19207/18710/12986/15234/56717/18595/14176/21802/19713/16653/233046/14183/13017/14168/94216/12830/12826/12827/16150/13617/12367/11513/53978/13143/21813/74769/19225/17350/67168/12402/20663/17342/14701/65086/18854/14173/12385/18798/19218/18796/12571/72993/16801/14369/12190/18708/213498/14255/14702/56458/14362/14367/11835/26414/14062/14633/14366/78134/18750/18795/18751/27401/328572/27057/12043/11797/14677/14172/12982/69632/13176/216033/12386/26413/14709/15245/235320/14707/240168/12828/67923/14256</t>
@@ -1941,18 +1920,18 @@
     <t>56077/320634/12313/110524/19211/53332/18803/170749/108083/219135/110197/104015/20975/114663/18719/74055/83493/212111/18711/16329/269180/16331/240752/18718/64436/55980/18706/18720/72519/18710/16330/67073/74596/16438/16439/18704/17772/77116/74769/327655/74302/380921/217480/234515/320127/54384/18798/18796/227399/18708/224020/101490/16440/18750/18795/18751/69718/331374/242291/227333</t>
   </si>
   <si>
+    <t>12313/14814/12290/12287/18575/18749/11515/12289/18803/13867/19216/14816/67972/13649/54140/432530/104111/18126/12291/20191/13488/19056/19057/13618/239556/107589/58226/14680/12322/14682/15566/74055/18682/15562/381290/14683/19220/19055/21338/12494/18595/18125/11938/18439/21336/16438/16439/11941/110891/11441/20190/11937/20866/110094/14829/320707/11556/13617/11513/70086/19058/18679/12286/15466/15558/11554/102093/12326/22045/15563/116873/18798/19218/18796/15560/16440/238564/243764/11549/12671/14062/18430/108071/18750/18795/12288/18751/108058/20541/20192/14811/18573/13869/213788/110893</t>
+  </si>
+  <si>
     <t>110157/11836/109880/20848/26395/16001/17295/19211/18803/13867/23797/16000/13649/216148/72508/18015/20418/56637/22339/20662/16452/58988/12125/18706/18176/16194/13645/13684/16451/18710/15234/56717/18595/21802/16653/14183/14388/71785/74769/20663/271849/14173/18708/56484/18750/18751/12043/100042150/16542/211323/26413</t>
   </si>
   <si>
-    <t>12313/14814/12290/12287/18575/18749/11515/12289/18803/13867/19216/14816/67972/13649/54140/432530/104111/18126/12291/20191/13488/19056/19057/13618/239556/107589/58226/14680/12322/14682/15566/74055/18682/15562/381290/14683/19220/19055/21338/12494/18595/18125/11938/18439/21336/16438/16439/11941/110891/11441/20190/11937/20866/110094/14829/320707/11556/13617/11513/70086/19058/18679/12286/15466/15558/11554/102093/12326/22045/15563/116873/18798/19218/18796/15560/16440/238564/243764/11549/12671/14062/18430/108071/18750/18795/12288/18751/108058/20541/20192/14811/18573/13869/213788/110893</t>
+    <t>110157/12313/21844/16151/14389/26395/54153/18749/16001/16337/16590/56044/17295/13712/18803/271457/58231/16706/23797/17311/16000/56480/13649/19696/216148/14257/26420/18015/66482/20418/218397/19418/14165/26419/11600/14167/224105/22339/19765/20662/15566/225870/56392/74055/12675/14169/54354/19731/11352/19730/11350/14178/19419/11602/18706/14696/18805/18176/13645/18033/18710/15234/18595/14176/14254/14812/16653/233046/14183/14168/18481/16150/14388/71785/19417/114713/74769/237625/20663/271849/14701/14173/241656/18784/19732/18708/217944/54601/14702/19247/26414/13640/329502/18750/320484/18751/66922/18783/14172/14811/225845/333050/16542/26413/14709/240057/17356/14707/109905/226525/240168/211429</t>
   </si>
   <si>
     <t>56077/110157/20683/110524/26395/13026/18803/23797/83767/13649/26420/72508/15251/26419/110197/63993/18607/20662/58988/12660/18719/18777/64930/19730/74182/18706/18805/18176/13645/18720/242259/18710/242687/19744/56717/18595/245880/73178/16653/71785/74769/380921/20663/236899/217480/320127/213603/18708/26414/329502/18750/18751/18783/212862/331374/26413/56517/227333/211429</t>
   </si>
   <si>
-    <t>110157/12313/21844/16151/14389/26395/54153/18749/16001/16337/16590/56044/17295/13712/18803/271457/58231/16706/23797/17311/16000/56480/13649/19696/216148/14257/26420/18015/66482/20418/218397/19418/14165/26419/11600/14167/224105/22339/19765/20662/15566/225870/56392/74055/12675/14169/54354/19731/11352/19730/11350/14178/19419/11602/18706/14696/18805/18176/13645/18033/18710/15234/18595/14176/14254/14812/16653/233046/14183/14168/18481/16150/14388/71785/19417/114713/74769/237625/20663/271849/14701/14173/241656/18784/19732/18708/217944/54601/14702/19247/26414/13640/329502/18750/320484/18751/66922/18783/14172/14811/225845/333050/16542/26413/14709/240057/17356/14707/109905/226525/240168/211429</t>
-  </si>
-  <si>
     <t>110157/11836/20683/109880/16450/12576/26395/18749/16001/11515/13388/18132/13557/17395/19014/20185/242705/23797/13982/16000/13649/17246/216148/26420/432530/72508/104111/20418/26419/19645/14083/11512/12575/20662/58988/18128/16449/14683/18706/17979/18176/18129/18710/56717/16653/11513/59035/74769/20663/271849/18131/18708/26414/19094/12043/26413</t>
   </si>
   <si>
@@ -2010,6 +1989,9 @@
     <t>22415/216795/110157/109880/13544/29869/26395/16001/16337/14365/19211/23797/20393/16000/14783/72508/14245/13543/73834/69008/22418/97998/56637/20112/18607/56716/20662/58988/12675/74370/67071/227154/64930/18706/22414/18176/13684/52187/108079/18710/19744/56717/22241/16974/16653/110651/16150/319481/74769/20663/216742/109270/12283/277854/227743/14369/18708/245670/252875/14362/14367/320311/268706/56430/14366/78757/105787/18750/11964/18751/27401/16367/329679/26413/68441</t>
   </si>
   <si>
+    <t>110157/11836/109880/12576/16151/26395/16001/19211/13557/242705/23797/22027/16000/13649/17246/15519/19645/12914/56637/12575/18607/20662/12675/12566/12912/18706/18176/13645/18033/12448/18710/56717/18595/21802/16653/14183/16150/71785/74769/20663/208647/18708/56458/11835/231991/328572/12043/26413</t>
+  </si>
+  <si>
     <t>14395/14405/53623/14814/12287/14401/14394/216227/14406/14799/14802/14397/14400/14812/140919/11441/14404/14396/57249/14402/14800/12286/242443/14407/110886/14811/72961</t>
   </si>
   <si>
@@ -2031,9 +2013,6 @@
     <t>214162/75410/14055/84505/18822/72947/18193/74147/64707/192195/69188/14056/30956/26432/269132/234407/235386/77683/73251/231051/208043/233904/235626/225888/381022/67956/213389/234135/107823/110593/232811/208266/73582/239122/192289</t>
   </si>
   <si>
-    <t>110157/11836/109880/12576/16151/26395/16001/19211/13557/17395/242705/23797/22027/16000/13649/17246/15519/19645/12914/56637/12575/18607/21417/20662/12675/12566/12912/18706/18176/13645/18033/12448/18710/56717/18595/21802/16653/14183/16150/18791/71785/74769/20663/208647/18708/56458/11835/231991/328572/12043/26413</t>
-  </si>
-  <si>
     <t>14395/14405/12287/18749/11515/14401/14394/12289/57138/432530/14406/104111/67760/11512/105727/70827/14660/14417/14696/14397/14400/232333/14404/14396/57249/11513/14681/14402/18195/12286/14701/227120/242425/14702/16522/216456/268566/18750/12288/18751/14407/110886/14677/268860/14709/14707/14415</t>
   </si>
   <si>
@@ -2082,12 +2061,12 @@
     <t>27214/12576/17222/13557/23834/242705/15182/17246/217232/66671/19645/19357/17869/12914/19090/17217/56637/12575/52563/17128/17126/13006/12566/20843/18393/26428/11350/13559/19650/12428/12448/26429/12545/50883/26965/56150/18817/22390/19651/12649/12442/245000/211586/218294/229776/11920/68999/20842/12577/22137/21781/50793/12236/12571/24061/27401/328572/105988/12572</t>
   </si>
   <si>
+    <t>110157/12313/14235/26395/21812/15257/19211/63873/19046/12289/13557/17865/242705/23797/103213/93759/17246/103583/19360/15574/16009/12192/19056/19057/19645/17869/12575/17126/12234/12566/54354/12334/64930/15259/58800/16175/13559/19650/18706/12428/67738/18176/19055/18033/12448/27354/18710/19744/56717/50883/16438/16653/16439/19651/18021/17535/12649/12442/245000/21813/74769/19058/11920/231506/231724/12571/233020/18708/16440/56458/12193/56484/19094/15042/66922/72568/15018/15258/26413/15007/15019/217708</t>
+  </si>
+  <si>
     <t>12491/20848/58805/16337/19211/19046/23797/14584/26420/72508/26419/18753/19013/56637/20112/18607/58988/76055/67071/12912/18761/26458/18706/18033/108079/18710/108099/56717/19017/14583/26459/110651/16150/74769/210789/19268/170826/108155/108097/208104/208647/384783/18708/19247/56458/18754/26414/228966/105787/18751/231991/16367/105651</t>
   </si>
   <si>
-    <t>110157/12313/14235/26395/21812/15257/19211/63873/19046/12289/13557/17865/242705/23797/103213/93759/17246/103583/19360/15574/16009/12192/19056/19057/19645/17869/12575/17126/12234/12566/54354/12334/64930/15259/58800/16175/13559/19650/18706/12428/67738/18176/19055/18033/12448/27354/18710/19744/56717/50883/16438/16653/16439/19651/18021/17535/12649/12442/245000/21813/74769/19058/11920/231506/231724/12571/233020/18708/16440/56458/12193/56484/19094/15042/66922/72568/15018/15258/26413/15007/15019/217708</t>
-  </si>
-  <si>
     <t>110157/13205/107986/12576/54131/20848/16151/26395/21812/13712/19211/13557/11799/17395/242705/23797/11783/56480/26420/20851/26401/26419/19645/17869/12914/15975/12575/17128/14102/12675/12566/12364/12912/71586/11909/18706/12428/18176/18033/12448/16451/18710/15530/16653/16150/12367/142980/18021/117149/74769/26398/13655/208647/21898/20847/12571/230073/18708/56489/26414/18750/18751/231991/328572/12043/26413</t>
   </si>
   <si>
@@ -2133,15 +2112,15 @@
     <t>110157/11836/107986/109880/26395/16001/17295/19211/13557/242705/23797/16000/13649/17246/27015/14165/19645/14167/12575/14169/14178/18706/18176/13645/18710/15234/18595/14176/16653/14168/71785/74769/17342/14173/12571/18708/14172/26413</t>
   </si>
   <si>
+    <t>110157/11836/109880/26395/12929/17295/11863/11864/12928/23797/15251/12914/224105/22339/13819/71745/20662/18706/18176/18710/15234/21802/16653/18481/14388/74769/20663/241656/18708/19247/328572/26413/109905/67923</t>
+  </si>
+  <si>
     <t>110157/11836/12313/109880/26395/18749/11515/17540/19046/12289/17931/54140/16533/432530/19878/14674/104111/18753/107589/11512/19877/14682/18761/14683/54195/230103/109624/16438/16439/16532/13617/11513/60596/237625/72413/18798/18796/16801/18784/234889/213498/16440/238564/18754/11549/329502/18750/18795/12288/18751/19091/18783/69632/54598/16531/26413/329251/211429</t>
   </si>
   <si>
     <t>110157/11836/107986/109880/26395/17688/11789/21812/56044/17686/11799/23797/23805/26420/27015/26419/17869/56637/12575/17128/58801/17126/19730/12125/18706/18710/16653/12367/21813/74769/17350/72993/18708/26414/12043/13176/26413</t>
   </si>
   <si>
-    <t>110157/11836/109880/26395/12929/17295/11863/11864/12928/23797/15251/12914/224105/12575/22339/13819/71745/20662/18706/18176/18710/15234/21802/16653/18481/14388/74769/20663/241656/18708/19247/328572/26413/109905/67923</t>
-  </si>
-  <si>
     <t>56808/16398/12289/12298/12300/16773/24052/20191/12558/320910/241226/16401/16410/16403/24051/11938/12385/104099/12293/140723/319734/67451/109700/13511/13405/14609/12288/11472/81905/20541/109620/12296/216033/12386/81904/213119</t>
   </si>
   <si>
@@ -2151,9 +2130,6 @@
     <t>12290/12287/16337/12289/26420/12291/26419/18753/18706/18710/56717/16150/74769/12286/12703/384783/20927/18708/18754/26414/378435/67296/12288/16370/16367/26413</t>
   </si>
   <si>
-    <t>22415/216795/110157/11836/107986/109880/13544/26395/16001/11789/21812/93760/14365/17295/13712/19211/13557/18803/242705/23797/13649/23805/216148/72508/13543/70127/20418/21752/27015/22418/19645/17869/56637/12575/72057/20662/17128/17126/93687/58988/67155/14859/18706/22414/18176/18710/15234/56717/21802/16974/16653/26992/14388/21813/74769/20588/77044/20663/271849/12571/14369/18708/66923/14362/14367/14366/18750/18751/26413/239985/27412/83796</t>
-  </si>
-  <si>
     <t>110157/11836/109880/12287/26395/18749/216343/14401/12289/15550/11820/14682/15566/214084/11689/15562/16519/14683/14696/18176/14400/16438/16653/16439/12367/14681/19225/22063/14402/12286/15558/110877/14701/16524/15563/18798/18796/15560/16440/14702/16522/81906/15551/329502/15557/18750/18795/12288/18751/140492/18783/14677/16508/26413/14709/14707/15552/211429</t>
   </si>
   <si>
@@ -2169,18 +2145,15 @@
     <t>110157/14389/26395/67260/19211/76893/23797/19052/26420/19878/14674/59032/20773/26932/81535/26419/17250/18607/19877/72930/14682/54447/226849/241447/18706/18805/18176/18033/18201/18710/269643/16653/74769/433323/18798/18796/208449/18708/235542/18754/13609/26414/18386/74442/18750/18795/18751/19094/12043/14677/26413/26408/19054</t>
   </si>
   <si>
-    <t>12576/20848/26395/16001/16337/13058/11863/18803/23797/16000/13649/72508/18126/15251/13614/11600/12914/22042/12575/22339/71745/12322/58988/170768/11602/18706/16194/13645/13684/18033/18710/17346/56717/14254/18597/74769/21898/18708/226265/18750/18751/108058/328572/12043/13808/26413/67923</t>
+    <t>53310/21844/102098/18749/18016/74094/75723/109711/12289/66713/19052/15525/26420/19878/77579/56217/26401/26419/17886/12737/105782/13383/19877/72930/83814/21873/93742/12479/17475/54357/108079/108099/269643/73178/21872/70497/17698/83964/19684/17999/68178/235442/192786/18417/18759/108097/12638/27494/224912/18754/14924/434204/26414/56173/72065/105787/23859/67374/60595/17879/17884/76089/17356/109905/70737/23828/26408/227157/667772</t>
+  </si>
+  <si>
+    <t>12313/18749/11515/16535/432530/104111/107589/11512/12322/14682/11931/14683/12349/20544/16438/16439/11513/15466/16526/18798/18796/208890/12638/16518/16440/16513/238564/12671/20606/18750/18795/16517/18751/108058/14677</t>
   </si>
   <si>
     <t>114714/68240/20962/19360/74335/21976/20184/12021/27354/19366/381760/19365/12144/67967/17535/235559/11920/70681/12190/225182/233826/623474</t>
   </si>
   <si>
-    <t>53310/21844/102098/18749/18016/74094/75723/109711/12289/66713/19052/15525/26420/19878/77579/56217/26401/26419/17886/12737/105782/13383/19877/72930/83814/21873/93742/12479/17475/54357/108079/108099/269643/73178/21872/70497/17698/83964/19684/17999/68178/235442/192786/18417/18759/108097/12638/27494/224912/18754/14924/434204/26414/56173/72065/105787/23859/67374/60595/17879/17884/76089/17356/109905/70737/23828/26408/227157/667772</t>
-  </si>
-  <si>
-    <t>12313/18749/11515/16535/432530/104111/107589/11512/12322/14682/11931/14683/12349/20544/16438/16439/11513/15466/16526/18798/18796/208890/12638/16518/16440/16513/238564/12671/20606/18750/18795/16517/18751/108058/14677</t>
-  </si>
-  <si>
     <t>11479/20683/12667/21812/66313/19052/72508/15902/15904/218441/12166/17869/12914/19877/17128/17126/58988/269275/12156/13559/19650/55994/18741/26965/17125/12160/21813/230597/21781/75788/21825/16323/15901/11480/12167/328572/11481/26413/12168</t>
   </si>
   <si>
@@ -2196,6 +2169,9 @@
     <t>12313/16890/18749/11515/12289/432530/104111/12291/239556/11512/11908/75292/58226/12322/14682/12912/18227/11909/14683/16438/16439/20845/11513/16835/269060/223604/12326/208647/227541/18798/18796/16440/18754/18750/18795/12288/18751/231991/108058</t>
   </si>
   <si>
+    <t>12576/20848/26395/16001/16337/13058/11863/18803/23797/16000/13649/72508/18126/15251/13614/11600/12914/22042/12575/22339/71745/12322/58988/170768/11602/18706/16194/13645/13684/18033/18710/17346/56717/14254/18597/74769/21898/18708/18750/18751/108058/328572/12043/13808/26413/67923</t>
+  </si>
+  <si>
     <t>11303/217265/27404/19300/27416/17250/11307/27410/11305/26357/20928/11306/56199/192663/224814/239273/27403/244562/20927/18671/12638/217262/76184/26874</t>
   </si>
   <si>
@@ -2244,9 +2220,6 @@
     <t>110157/16151/26395/22325/23797/20963/19056/19057/56637/20662/83490/12675/16331/18706/18176/26377/19055/18033/18710/16653/12229/16150/18021/74769/240354/57257/19058/20663/18708/18751/26413/240168</t>
   </si>
   <si>
-    <t>103135/72198/72068/104625/71701/75901/18458/70640/15510/24128/69639/72162/72587/18983/69305/13209/24127/72662/218343/210106/231464/232791/319885/234699/234594/214627/22057/53621/319618/76522/225929/226265/78893/13808/66317/66373</t>
-  </si>
-  <si>
     <t>15395/20683/53623/214162/107986/12576/14009/18505/16001/17260/12395/17295/12455/18507/11864/17395/20185/15182/67603/16000/17246/19696/16009/15902/13207/53618/27015/17869/12053/14083/11908/12575/21417/72949/212980/12151/22029/18033/70122/18647/16599/17355/14254/18791/17125/21813/11920/20474/17342/80859/18854/268996/18109/22289/108829/15405/18516/12393/27140/20466/14255/56458/545192/58208/18514/17132/18627/107823/208266/235320/22290</t>
   </si>
   <si>
@@ -2260,6 +2233,9 @@
   </si>
   <si>
     <t>227720/54194/12576/54131/20848/16151/18749/27103/20020/15482/21374/68652/18803/19668/69077/23797/15182/56480/17246/103573/26420/66354/22031/19766/20963/67089/26419/19645/17869/12914/252870/56637/12575/19106/12675/18034/218832/12566/208727/22029/11909/22034/70408/18706/12428/18033/229906/26409/16451/18710/12494/20602/15467/20018/26939/16179/16150/68153/13666/16453/54721/17999/74769/26398/67486/67005/19664/230073/18708/26414/12495/19094/15042/27401/328572/12043/15018/15007/237336/15019/19428/15511/193740</t>
+  </si>
+  <si>
+    <t>103135/72198/72068/104625/71701/75901/18458/70640/15510/24128/69639/72162/72587/18983/69305/13209/24127/72662/218343/210106/231464/232791/319885/234699/234594/214627/22057/53621/319618/76522/225929/78893/13808/66317/66373</t>
   </si>
   <si>
     <t>67897/53319/19046/216578/19052/18949/59032/26932/18789/56215/54196/18458/68092/72930/226849/228410/24018/433702/17149/51796/269643/66899/66441/233789/108062/269061/68134/74737/51786/237082/226517/235542/326622/432508/19704/100041953/14852/76626/192160/19054</t>
@@ -2360,25 +2336,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2" t="n">
-        <v>2.433464387573014E-22</v>
+        <v>2.362265505535631E-22</v>
       </c>
       <c r="G2" t="n">
-        <v>7.373397094346232E-20</v>
+        <v>7.134041826717606E-20</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3792370672666624E-20</v>
+        <v>5.246716017558087E-20</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J2" t="n">
         <v>104.0</v>
@@ -2392,25 +2368,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F3" t="n">
-        <v>8.254841385991952E-22</v>
+        <v>8.006657670764845E-22</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2506084699777808E-19</v>
+        <v>1.2090053082854916E-19</v>
       </c>
       <c r="H3" t="n">
-        <v>9.123772058201631E-20</v>
+        <v>8.891604044902013E-20</v>
       </c>
       <c r="I3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J3" t="n">
         <v>109.0</v>
@@ -2424,25 +2400,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5444674290815818E-18</v>
+        <v>1.4969539794594704E-18</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5599121033723976E-16</v>
+        <v>1.506933672655867E-16</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1380286319548497E-16</v>
+        <v>1.1082711918103449E-16</v>
       </c>
       <c r="I4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J4" t="n">
         <v>122.0</v>
@@ -2456,25 +2432,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0247016694392582E-16</v>
+        <v>1.9636300482761634E-16</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5337115146002382E-14</v>
+        <v>1.4825406864485033E-14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1189140804795901E-14</v>
+        <v>1.0903314215428172E-14</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J5" t="n">
         <v>127.0</v>
@@ -2488,25 +2464,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" t="n">
-        <v>4.181546272603304E-12</v>
+        <v>4.089372986230102E-12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5340170411976027E-10</v>
+        <v>2.469981283682981E-10</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8486836152561975E-10</v>
+        <v>1.8165425265148454E-10</v>
       </c>
       <c r="I6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J6" t="n">
         <v>97.0</v>
@@ -2520,25 +2496,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>3.042908817237582E-11</v>
+        <v>2.973468770910033E-11</v>
       </c>
       <c r="G7" t="n">
-        <v>1.536668952704979E-9</v>
+        <v>1.4966459480247166E-9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.1210716695085829E-9</v>
+        <v>1.1007051064245914E-9</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J7" t="n">
         <v>107.0</v>
@@ -2552,25 +2528,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F8" t="n">
-        <v>1.9912813816825687E-10</v>
+        <v>1.9699246306835238E-10</v>
       </c>
       <c r="G8" t="n">
-        <v>8.619403694997404E-9</v>
+        <v>8.49881769237749E-9</v>
       </c>
       <c r="H8" t="n">
-        <v>6.288256994787059E-9</v>
+        <v>6.2504375499883246E-9</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J8" t="n">
         <v>38.0</v>
@@ -2584,25 +2560,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F9" t="n">
-        <v>7.524360519849075E-10</v>
+        <v>4.1167547075594666E-10</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8498515468928372E-8</v>
+        <v>1.5540749021036986E-8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.079099617326718E-8</v>
+        <v>1.1429411095987469E-8</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J9" t="n">
         <v>77.0</v>
@@ -2616,25 +2592,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F10" t="n">
-        <v>6.788716648161414E-9</v>
+        <v>6.676597938502237E-9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2855346048810093E-7</v>
+        <v>2.240369530475195E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.6674040890221018E-7</v>
+        <v>1.6476750468116633E-7</v>
       </c>
       <c r="I10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J10" t="n">
         <v>77.0</v>
@@ -2648,25 +2624,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F11" t="n">
-        <v>7.265830158488483E-8</v>
+        <v>7.150432886573927E-8</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2015465380220106E-6</v>
+        <v>2.159430731745326E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6061308771395595E-6</v>
+        <v>1.5881487779653674E-6</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J11" t="n">
         <v>79.0</v>
@@ -2680,25 +2656,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F12" t="n">
-        <v>5.508310732576037E-7</v>
+        <v>5.424294222181243E-7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.5172892290641266E-5</v>
+        <v>1.4892153228170321E-5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.106933257264084E-5</v>
+        <v>1.095240268784921E-5</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J12" t="n">
         <v>81.0</v>
@@ -2712,28 +2688,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F13" t="n">
-        <v>1.203321378051864E-6</v>
+        <v>7.483421362135614E-7</v>
       </c>
       <c r="G13" t="n">
-        <v>3.038386479580957E-5</v>
+        <v>1.8833277094707962E-5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2166446437797497E-5</v>
+        <v>1.3850893924654517E-5</v>
       </c>
       <c r="I13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="14">
@@ -2744,28 +2720,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" t="n">
-        <v>1.3432592565572352E-6</v>
+        <v>1.1918186433605022E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.130827344129556E-5</v>
+        <v>2.7686863868836283E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.284084565805825E-5</v>
+        <v>2.036224564769765E-5</v>
       </c>
       <c r="I14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J14" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
@@ -2776,25 +2752,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F15" t="n">
-        <v>7.028366333729004E-6</v>
+        <v>6.9954046790921365E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5211392850856344E-4</v>
+        <v>1.5090087236327323E-4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.1097420526940533E-4</v>
+        <v>1.1097972836755195E-4</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J15" t="n">
         <v>16.0</v>
@@ -2808,25 +2784,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F16" t="n">
-        <v>1.149490620836031E-5</v>
+        <v>1.1423512790786317E-5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3219710540887825E-4</v>
+        <v>2.2999339085449783E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.6939861780741508E-4</v>
+        <v>1.691481543056781E-4</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J16" t="n">
         <v>24.0</v>
@@ -2840,25 +2816,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F17" t="n">
-        <v>1.2495682047090196E-5</v>
+        <v>1.2399525014694386E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3663697876677057E-4</v>
+        <v>2.3404103465235652E-4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.726377124926935E-4</v>
+        <v>1.7212498540134972E-4</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J17" t="n">
         <v>33.0</v>
@@ -2872,25 +2848,25 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F18" t="n">
-        <v>1.671088201802773E-5</v>
+        <v>1.6527613509777665E-5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9784689714484723E-4</v>
+        <v>2.9360819293840326E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.1729320271119648E-4</v>
+        <v>2.159335263506556E-4</v>
       </c>
       <c r="I18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J18" t="n">
         <v>58.0</v>
@@ -2904,25 +2880,25 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" t="n">
-        <v>3.827506575393214E-5</v>
+        <v>2.2741617780604885E-5</v>
       </c>
       <c r="G19" t="n">
-        <v>6.44296940191191E-4</v>
+        <v>3.8155380943014864E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>4.700446671535526E-4</v>
+        <v>2.806129445443059E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J19" t="n">
         <v>41.0</v>
@@ -2936,25 +2912,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F20" t="n">
-        <v>6.322863570858596E-5</v>
+        <v>6.213162737385192E-5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0010083303484053445</v>
+        <v>9.875658666791199E-4</v>
       </c>
       <c r="H20" t="n">
-        <v>7.356240165541857E-4</v>
+        <v>7.263032341209282E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J20" t="n">
         <v>135.0</v>
@@ -2968,28 +2944,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F21" t="n">
-        <v>8.146652447430582E-5</v>
+        <v>6.81523273448121E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0012342178457857332</v>
+        <v>0.0010291001429066627</v>
       </c>
       <c r="H21" t="n">
-        <v>9.004194810318013E-4</v>
+        <v>7.568495299871239E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J21" t="n">
-        <v>92.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="22">
@@ -3000,28 +2976,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0381737948549405E-4</v>
+        <v>8.036050464014236E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0014979364754335572</v>
+        <v>0.0011556605905391902</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0010928145208999374</v>
+        <v>8.499281443142876E-4</v>
       </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J22" t="n">
-        <v>48.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="23">
@@ -3032,25 +3008,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F23" t="n">
-        <v>1.1376413010701077E-4</v>
+        <v>1.1288477801015184E-4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001566842337382921</v>
+        <v>0.0015496001345029933</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0011430845608838402</v>
+        <v>0.0011396501512029684</v>
       </c>
       <c r="I23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J23" t="n">
         <v>38.0</v>
@@ -3064,25 +3040,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F24" t="n">
-        <v>1.2444199251357652E-4</v>
+        <v>1.2337632003084096E-4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0015960536536209734</v>
+        <v>0.001581710748899915</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001164395578462409</v>
+        <v>0.0011632658348479684</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J24" t="n">
         <v>45.0</v>
@@ -3096,25 +3072,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F25" t="n">
-        <v>1.2642009137591869E-4</v>
+        <v>1.256988674622449E-4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0015960536536209734</v>
+        <v>0.001581710748899915</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001164395578462409</v>
+        <v>0.0011632658348479684</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J25" t="n">
         <v>24.0</v>
@@ -3128,25 +3104,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F26" t="n">
-        <v>1.6632015091535266E-4</v>
+        <v>1.6366964883712546E-4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0020158002290940743</v>
+        <v>0.0019771293579524756</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0014706202817778551</v>
+        <v>0.001454075617037199</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J26" t="n">
         <v>128.0</v>
@@ -3160,25 +3136,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" t="n">
-        <v>2.2911715252382192E-4</v>
+        <v>2.2791513061179748E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0025756779976762885</v>
+        <v>0.002636431888309116</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0018790772260275166</v>
+        <v>0.0019389582726846413</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J27" t="n">
         <v>22.0</v>
@@ -3192,25 +3168,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F28" t="n">
-        <v>2.3844315682414551E-4</v>
+        <v>2.3688101177784168E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0025756779976762885</v>
+        <v>0.002636431888309116</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0018790772260275166</v>
+        <v>0.0019389582726846413</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J28" t="n">
         <v>31.0</v>
@@ -3224,28 +3200,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" t="n">
-        <v>2.4089340093658122E-4</v>
+        <v>2.520729273090194E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0025756779976762885</v>
+        <v>0.002636431888309116</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0018790772260275166</v>
+        <v>0.0019389582726846413</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J29" t="n">
-        <v>85.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="30">
@@ -3256,25 +3232,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5465158809065457E-4</v>
+        <v>2.531673005329946E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0025756779976762885</v>
+        <v>0.002636431888309116</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0018790772260275166</v>
+        <v>0.0019389582726846413</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J30" t="n">
         <v>26.0</v>
@@ -3288,28 +3264,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F31" t="n">
-        <v>2.550176235323058E-4</v>
+        <v>4.5513005647924683E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0025756779976762885</v>
+        <v>0.004461051957784133</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0018790772260275166</v>
+        <v>0.0032808712551148558</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J31" t="n">
-        <v>78.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="32">
@@ -3320,28 +3296,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F32" t="n">
-        <v>4.5752144639617064E-4</v>
+        <v>4.579225519579739E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004359373634622123</v>
+        <v>0.004461051957784133</v>
       </c>
       <c r="H32" t="n">
-        <v>0.003180366382736306</v>
+        <v>0.0032808712551148558</v>
       </c>
       <c r="I32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J32" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="33">
@@ -3352,28 +3328,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F33" t="n">
-        <v>4.6039589540563673E-4</v>
+        <v>7.493617386329165E-4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.004359373634622123</v>
+        <v>0.0070721014083481495</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003180366382736306</v>
+        <v>0.005201162067485046</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J33" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -3384,28 +3360,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" t="n">
-        <v>7.536125928148935E-4</v>
+        <v>8.126979166299762E-4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006919533806754931</v>
+        <v>0.007244121876929948</v>
       </c>
       <c r="H34" t="n">
-        <v>0.005048122631295937</v>
+        <v>0.005327674158355591</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J34" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="35">
@@ -3416,28 +3392,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F35" t="n">
-        <v>8.169520436654995E-4</v>
+        <v>8.155633901179411E-4</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007093256414383259</v>
+        <v>0.007244121876929948</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0051748613757876824</v>
+        <v>0.005327674158355591</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J35" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="36">
@@ -3448,28 +3424,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F36" t="n">
-        <v>8.193530511663831E-4</v>
+        <v>8.972604917857816E-4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007093256414383259</v>
+        <v>0.007742076243408743</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0051748613757876824</v>
+        <v>0.0056938936471218025</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J36" t="n">
-        <v>20.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,28 +3456,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F37" t="n">
-        <v>9.074969207849614E-4</v>
+        <v>0.0011546704288595653</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007638099083273425</v>
+        <v>0.009686401930988575</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0055723495135918686</v>
+        <v>0.007123843873958137</v>
       </c>
       <c r="I37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J37" t="n">
-        <v>86.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,28 +3488,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0011588147514962517</v>
+        <v>0.0014278697029349004</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009489753235226061</v>
+        <v>0.011401513460012995</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0069232175765067665</v>
+        <v>0.008385219031239953</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J38" t="n">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -3544,28 +3520,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0014365261121975113</v>
+        <v>0.0014824235883886742</v>
       </c>
       <c r="G39" t="n">
-        <v>0.011208647074744138</v>
+        <v>0.011401513460012995</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008177230799709116</v>
+        <v>0.008385219031239953</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J39" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="40">
@@ -3576,28 +3552,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0014922287459054246</v>
+        <v>0.0014923873396013982</v>
       </c>
       <c r="G40" t="n">
-        <v>0.011208647074744138</v>
+        <v>0.011401513460012995</v>
       </c>
       <c r="H40" t="n">
-        <v>0.008177230799709116</v>
+        <v>0.008385219031239953</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J40" t="n">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="41">
@@ -3608,28 +3584,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001498636977194926</v>
+        <v>0.0015101342331143041</v>
       </c>
       <c r="G41" t="n">
-        <v>0.011208647074744138</v>
+        <v>0.011401513460012995</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008177230799709116</v>
+        <v>0.008385219031239953</v>
       </c>
       <c r="I41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J41" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="42">
@@ -3640,28 +3616,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0015166816173746193</v>
+        <v>0.0027667545624462863</v>
       </c>
       <c r="G42" t="n">
-        <v>0.011208647074744138</v>
+        <v>0.020030463803856677</v>
       </c>
       <c r="H42" t="n">
-        <v>0.008177230799709116</v>
+        <v>0.014731362365332032</v>
       </c>
       <c r="I42" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J42" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="43">
@@ -3672,28 +3648,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002777485619665096</v>
+        <v>0.002785693641595962</v>
       </c>
       <c r="G43" t="n">
-        <v>0.020037574827583907</v>
+        <v>0.020030463803856677</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0146183453666584</v>
+        <v>0.014731362365332032</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -3704,25 +3680,25 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002973846912389276</v>
+        <v>0.002947684415380654</v>
       </c>
       <c r="G44" t="n">
-        <v>0.020621232845429726</v>
+        <v>0.020352449296201804</v>
       </c>
       <c r="H44" t="n">
-        <v>0.015044151111829919</v>
+        <v>0.014968165916690767</v>
       </c>
       <c r="I44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J44" t="n">
         <v>66.0</v>
@@ -3736,25 +3712,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0029945024594023365</v>
+        <v>0.002965257513353905</v>
       </c>
       <c r="G45" t="n">
-        <v>0.020621232845429726</v>
+        <v>0.020352449296201804</v>
       </c>
       <c r="H45" t="n">
-        <v>0.015044151111829919</v>
+        <v>0.014968165916690767</v>
       </c>
       <c r="I45" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J45" t="n">
         <v>79.0</v>
@@ -3768,25 +3744,25 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0037840190190709354</v>
+        <v>0.0037620124236568625</v>
       </c>
       <c r="G46" t="n">
-        <v>0.024675674233334097</v>
+        <v>0.024352918097978463</v>
       </c>
       <c r="H46" t="n">
-        <v>0.018002055198888867</v>
+        <v>0.017910302260974054</v>
       </c>
       <c r="I46" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J46" t="n">
         <v>34.0</v>
@@ -3800,25 +3776,25 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0038060277650507034</v>
+        <v>0.0037886127751705478</v>
       </c>
       <c r="G47" t="n">
-        <v>0.024675674233334097</v>
+        <v>0.024352918097978463</v>
       </c>
       <c r="H47" t="n">
-        <v>0.018002055198888867</v>
+        <v>0.017910302260974054</v>
       </c>
       <c r="I47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J47" t="n">
         <v>23.0</v>
@@ -3832,25 +3808,25 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0038708691192666277</v>
+        <v>0.0038504657861725745</v>
       </c>
       <c r="G48" t="n">
-        <v>0.024675674233334097</v>
+        <v>0.024352918097978463</v>
       </c>
       <c r="H48" t="n">
-        <v>0.018002055198888867</v>
+        <v>0.017910302260974054</v>
       </c>
       <c r="I48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J48" t="n">
         <v>29.0</v>
@@ -3864,25 +3840,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003909017700330154</v>
+        <v>0.0038706624791488946</v>
       </c>
       <c r="G49" t="n">
-        <v>0.024675674233334097</v>
+        <v>0.024352918097978463</v>
       </c>
       <c r="H49" t="n">
-        <v>0.018002055198888867</v>
+        <v>0.017910302260974054</v>
       </c>
       <c r="I49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J49" t="n">
         <v>83.0</v>
@@ -3896,28 +3872,28 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F50" t="n">
-        <v>0.004160589952193867</v>
+        <v>0.004338440584985806</v>
       </c>
       <c r="G50" t="n">
-        <v>0.025727729704382484</v>
+        <v>0.02615770457388944</v>
       </c>
       <c r="H50" t="n">
-        <v>0.018769578731701656</v>
+        <v>0.01923762866884166</v>
       </c>
       <c r="I50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J50" t="n">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="51">
@@ -3928,25 +3904,25 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0043506657219946595</v>
+        <v>0.004338440584985806</v>
       </c>
       <c r="G51" t="n">
-        <v>0.025846698560701573</v>
+        <v>0.02615770457388944</v>
       </c>
       <c r="H51" t="n">
-        <v>0.018856372060959983</v>
+        <v>0.01923762866884166</v>
       </c>
       <c r="I51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J51" t="n">
         <v>11.0</v>
@@ -3960,28 +3936,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0043506657219946595</v>
+        <v>0.004417360706186627</v>
       </c>
       <c r="G52" t="n">
-        <v>0.025846698560701573</v>
+        <v>0.02615770457388944</v>
       </c>
       <c r="H52" t="n">
-        <v>0.018856372060959983</v>
+        <v>0.01923762866884166</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J52" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="53">
@@ -3992,28 +3968,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F53" t="n">
-        <v>0.004435737046721062</v>
+        <v>0.00474879345501175</v>
       </c>
       <c r="G53" t="n">
-        <v>0.025846698560701573</v>
+        <v>0.027579531219491315</v>
       </c>
       <c r="H53" t="n">
-        <v>0.018856372060959983</v>
+        <v>0.02028330807707448</v>
       </c>
       <c r="I53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J53" t="n">
-        <v>20.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="54">
@@ -4024,28 +4000,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004793293821802779</v>
+        <v>0.005456552803363753</v>
       </c>
       <c r="G54" t="n">
-        <v>0.027403170339740417</v>
+        <v>0.03054786429586948</v>
       </c>
       <c r="H54" t="n">
-        <v>0.019991890815860648</v>
+        <v>0.022466362378628306</v>
       </c>
       <c r="I54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J54" t="n">
-        <v>78.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="55">
@@ -4056,28 +4032,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.005496783405848502</v>
+        <v>0.0054622009005859335</v>
       </c>
       <c r="G55" t="n">
-        <v>0.030290515509578803</v>
+        <v>0.03054786429586948</v>
       </c>
       <c r="H55" t="n">
-        <v>0.022098343779786516</v>
+        <v>0.022466362378628306</v>
       </c>
       <c r="I55" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J55" t="n">
-        <v>53.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="56">
@@ -4088,28 +4064,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.005498278392827836</v>
+        <v>0.0064836075388125455</v>
       </c>
       <c r="G56" t="n">
-        <v>0.030290515509578803</v>
+        <v>0.035600899576752526</v>
       </c>
       <c r="H56" t="n">
-        <v>0.022098343779786516</v>
+        <v>0.026182606520372197</v>
       </c>
       <c r="I56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J56" t="n">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -4120,28 +4096,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="F57" t="n">
-        <v>0.006515049464315763</v>
+        <v>0.008518496006311538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.035251071208708504</v>
+        <v>0.04593903203403723</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02571730051703591</v>
+        <v>0.03378576423555892</v>
       </c>
       <c r="I57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J57" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
@@ -4152,28 +4128,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F58" t="n">
-        <v>0.008559648414580954</v>
+        <v>0.008758923547959397</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04550128894066718</v>
+        <v>0.04640692827164452</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03319531241111728</v>
+        <v>0.03412987753683164</v>
       </c>
       <c r="I58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J58" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="59">
@@ -4184,59 +4160,27 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.008796374207013975</v>
+        <v>0.00940803563934234</v>
       </c>
       <c r="G59" t="n">
-        <v>0.045953472150435076</v>
+        <v>0.04898666832898942</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03352520115195889</v>
+        <v>0.03602714192198247</v>
       </c>
       <c r="I59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J59" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.009501633032676022</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.04879652218475991</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.03559933874865236</v>
-      </c>
-      <c r="I60" t="s">
-        <v>279</v>
-      </c>
-      <c r="J60" t="n">
         <v>98.0</v>
       </c>
     </row>
@@ -4285,31 +4229,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0999105002839549E-16</v>
+        <v>8.890296247357139E-17</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3327288158603834E-14</v>
+        <v>2.684869466701856E-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9219488741803844E-14</v>
+        <v>1.553462291643458E-14</v>
       </c>
       <c r="I2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="J2" t="n">
         <v>196.0</v>
@@ -4317,31 +4261,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5574350171904703E-12</v>
+        <v>2.3569230135378784E-12</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8745140510435627E-10</v>
+        <v>3.5589537504421963E-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2343905939664108E-10</v>
+        <v>2.0592064223541467E-10</v>
       </c>
       <c r="I3" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="J3" t="n">
         <v>57.0</v>
@@ -4349,31 +4293,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F4" t="n">
-        <v>4.4419514041975596E-12</v>
+        <v>3.862620744714616E-12</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4863709182395354E-10</v>
+        <v>3.888371549679381E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5872418705150697E-10</v>
+        <v>2.2498071706057066E-10</v>
       </c>
       <c r="I4" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="J4" t="n">
         <v>128.0</v>
@@ -4381,31 +4325,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0109857507109195E-11</v>
+        <v>1.825558360638992E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5233217061635215E-9</v>
+        <v>1.378296562282439E-9</v>
       </c>
       <c r="H5" t="n">
-        <v>8.784832489947701E-10</v>
+        <v>7.974807575422966E-10</v>
       </c>
       <c r="I5" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="J5" t="n">
         <v>76.0</v>
@@ -4413,31 +4357,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F6" t="n">
-        <v>5.491779915771997E-11</v>
+        <v>4.8846679037161955E-11</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5137319206435933E-9</v>
+        <v>2.294083027017336E-9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.449642170668183E-9</v>
+        <v>1.3273537207559351E-9</v>
       </c>
       <c r="I6" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="J6" t="n">
         <v>104.0</v>
@@ -4445,31 +4389,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F7" t="n">
-        <v>5.6393715322213665E-11</v>
+        <v>5.12721250974545E-11</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5137319206435933E-9</v>
+        <v>2.294083027017336E-9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.449642170668183E-9</v>
+        <v>1.3273537207559351E-9</v>
       </c>
       <c r="I7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="J7" t="n">
         <v>76.0</v>
@@ -4477,31 +4421,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" t="n">
-        <v>6.544811730419636E-11</v>
+        <v>5.866994455958559E-11</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5137319206435933E-9</v>
+        <v>2.294083027017336E-9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.449642170668183E-9</v>
+        <v>1.3273537207559351E-9</v>
       </c>
       <c r="I8" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="J8" t="n">
         <v>94.0</v>
@@ -4509,31 +4453,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F9" t="n">
-        <v>6.636915962095296E-11</v>
+        <v>6.077041131171751E-11</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5137319206435933E-9</v>
+        <v>2.294083027017336E-9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449642170668183E-9</v>
+        <v>1.3273537207559351E-9</v>
       </c>
       <c r="I9" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="J9" t="n">
         <v>68.0</v>
@@ -4541,31 +4485,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0068876096177814E-10</v>
+        <v>1.8534011606479326E-10</v>
       </c>
       <c r="G10" t="n">
-        <v>6.75652161904653E-9</v>
+        <v>6.219190561285285E-9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8964133707199024E-9</v>
+        <v>3.598416288509437E-9</v>
       </c>
       <c r="I10" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="J10" t="n">
         <v>60.0</v>
@@ -4573,159 +4517,159 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F11" t="n">
-        <v>5.886266036659764E-10</v>
+        <v>5.444493886994785E-10</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6670668354767724E-8</v>
+        <v>1.5068390543016684E-8</v>
       </c>
       <c r="H11" t="n">
-        <v>9.613795195037143E-9</v>
+        <v>8.71855291091241E-9</v>
       </c>
       <c r="I11" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="J11" t="n">
-        <v>51.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F12" t="n">
-        <v>6.052057818562539E-10</v>
+        <v>5.488486621628594E-10</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6670668354767724E-8</v>
+        <v>1.5068390543016684E-8</v>
       </c>
       <c r="H12" t="n">
-        <v>9.613795195037143E-9</v>
+        <v>8.71855291091241E-9</v>
       </c>
       <c r="I12" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="J12" t="n">
-        <v>95.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2829716079502521E-9</v>
+        <v>1.1680250319485093E-9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0567045656187996E-8</v>
+        <v>2.7616782627062625E-8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76276865691409E-8</v>
+        <v>1.5979037699868932E-8</v>
       </c>
       <c r="I13" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="J13" t="n">
-        <v>59.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F14" t="n">
-        <v>1.3114574043909042E-9</v>
+        <v>1.1888019011649475E-9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0567045656187996E-8</v>
+        <v>2.7616782627062625E-8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76276865691409E-8</v>
+        <v>1.5979037699868932E-8</v>
       </c>
       <c r="I14" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="J14" t="n">
-        <v>112.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F15" t="n">
-        <v>1.9671303616936006E-9</v>
+        <v>1.8285766706998024E-9</v>
       </c>
       <c r="G15" t="n">
-        <v>4.2574321399511495E-8</v>
+        <v>3.9445011039381454E-8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4552153386551707E-8</v>
+        <v>2.2822836641817086E-8</v>
       </c>
       <c r="I15" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J15" t="n">
         <v>56.0</v>
@@ -4733,31 +4677,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F16" t="n">
-        <v>2.6099502802706714E-9</v>
+        <v>2.3485865290185247E-9</v>
       </c>
       <c r="G16" t="n">
-        <v>5.272099566146756E-8</v>
+        <v>4.7284875450906296E-8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.040363133508291E-8</v>
+        <v>2.735897289944387E-8</v>
       </c>
       <c r="I16" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="J16" t="n">
         <v>99.0</v>
@@ -4765,31 +4709,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F17" t="n">
-        <v>2.8070843669234837E-9</v>
+        <v>2.6472935574208566E-9</v>
       </c>
       <c r="G17" t="n">
-        <v>5.3159160198613474E-8</v>
+        <v>4.996766589631867E-8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0656316112453836E-8</v>
+        <v>2.8911232271833044E-8</v>
       </c>
       <c r="I17" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="J17" t="n">
         <v>41.0</v>
@@ -4797,31 +4741,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E18" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F18" t="n">
-        <v>3.3634741660857478E-9</v>
+        <v>2.9223711003485165E-9</v>
       </c>
       <c r="G18" t="n">
-        <v>5.994898072494009E-8</v>
+        <v>5.191506307677953E-8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4571932604968055E-8</v>
+        <v>3.0037993972622524E-8</v>
       </c>
       <c r="I18" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="J18" t="n">
         <v>157.0</v>
@@ -4829,31 +4773,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E19" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F19" t="n">
-        <v>3.9759461903849664E-9</v>
+        <v>3.7026126850489862E-9</v>
       </c>
       <c r="G19" t="n">
-        <v>6.692842753814693E-8</v>
+        <v>6.212161282693299E-8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8596904538240026E-8</v>
+        <v>3.5943491562463845E-8</v>
       </c>
       <c r="I19" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="J19" t="n">
         <v>55.0</v>
@@ -4861,31 +4805,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E20" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F20" t="n">
-        <v>1.5020733121305402E-8</v>
+        <v>1.413724418392128E-8</v>
       </c>
       <c r="G20" t="n">
-        <v>2.395411650397651E-7</v>
+        <v>2.2470777597601193E-7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.3814081430120204E-7</v>
+        <v>1.3001565288260015E-7</v>
       </c>
       <c r="I20" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="J20" t="n">
         <v>45.0</v>
@@ -4893,31 +4837,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E21" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F21" t="n">
-        <v>1.7629768331748294E-8</v>
+        <v>1.5435074358365637E-8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.670909902259867E-7</v>
+        <v>2.330696228113211E-7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.5402850226685352E-7</v>
+        <v>1.3485380755203664E-7</v>
       </c>
       <c r="I21" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="J21" t="n">
         <v>153.0</v>
@@ -4925,31 +4869,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E22" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F22" t="n">
-        <v>2.326322507337592E-8</v>
+        <v>2.1324586665570645E-8</v>
       </c>
       <c r="G22" t="n">
-        <v>3.356551046301383E-7</v>
+        <v>3.0666786538106357E-7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.9356868983360415E-7</v>
+        <v>1.7743766348294372E-7</v>
       </c>
       <c r="I22" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="J22" t="n">
         <v>79.0</v>
@@ -4957,31 +4901,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D23" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E23" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F23" t="n">
-        <v>2.781533295025273E-8</v>
+        <v>2.595322961311024E-8</v>
       </c>
       <c r="G23" t="n">
-        <v>3.830929947239354E-7</v>
+        <v>3.562670610526951E-7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.2092561099243792E-7</v>
+        <v>2.0613569931944022E-7</v>
       </c>
       <c r="I23" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="J23" t="n">
         <v>56.0</v>
@@ -4989,31 +4933,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E24" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F24" t="n">
-        <v>4.934013111529287E-8</v>
+        <v>4.4707058911649885E-8</v>
       </c>
       <c r="G24" t="n">
-        <v>6.500025968666844E-7</v>
+        <v>5.870231213616637E-7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.748495087019962E-7</v>
+        <v>3.3965088234937676E-7</v>
       </c>
       <c r="I24" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="J24" t="n">
         <v>99.0</v>
@@ -5021,31 +4965,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E25" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0045265261520153E-7</v>
+        <v>9.261586780559833E-8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2682147392669193E-6</v>
+        <v>1.165416336553779E-6</v>
       </c>
       <c r="H25" t="n">
-        <v>7.313658041282217E-7</v>
+        <v>6.743085112161984E-7</v>
       </c>
       <c r="I25" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="J25" t="n">
         <v>75.0</v>
@@ -5053,31 +4997,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E26" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1311562952724795E-7</v>
+        <v>1.025866597015093E-7</v>
       </c>
       <c r="G26" t="n">
-        <v>1.370961429870245E-6</v>
+        <v>1.2392468491942322E-6</v>
       </c>
       <c r="H26" t="n">
-        <v>7.906187158536067E-7</v>
+        <v>7.170267583347598E-7</v>
       </c>
       <c r="I26" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="J26" t="n">
         <v>101.0</v>
@@ -5085,31 +5029,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F27" t="n">
-        <v>1.539197874909556E-7</v>
+        <v>1.4580312268431023E-7</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7937575234522902E-6</v>
+        <v>1.6935593481023727E-6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0344406770647219E-6</v>
+        <v>9.798914318054858E-7</v>
       </c>
       <c r="I27" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J27" t="n">
         <v>41.0</v>
@@ -5117,31 +5061,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F28" t="n">
-        <v>1.668552905866684E-7</v>
+        <v>1.5674450631163308E-7</v>
       </c>
       <c r="G28" t="n">
-        <v>1.849888702918921E-6</v>
+        <v>1.700694475523957E-6</v>
       </c>
       <c r="H28" t="n">
-        <v>1.0668109247335101E-6</v>
+        <v>9.84019808075904E-7</v>
       </c>
       <c r="I28" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="J28" t="n">
         <v>51.0</v>
@@ -5149,31 +5093,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D29" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F29" t="n">
-        <v>1.7094681083079138E-7</v>
+        <v>1.576802824989099E-7</v>
       </c>
       <c r="G29" t="n">
-        <v>1.849888702918921E-6</v>
+        <v>1.700694475523957E-6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.0668109247335101E-6</v>
+        <v>9.84019808075904E-7</v>
       </c>
       <c r="I29" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="J29" t="n">
         <v>76.0</v>
@@ -5181,31 +5125,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D30" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E30" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F30" t="n">
-        <v>3.0361381864266866E-7</v>
+        <v>2.850369830721471E-7</v>
       </c>
       <c r="G30" t="n">
-        <v>3.091575158954208E-6</v>
+        <v>2.9139523469781525E-6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.7828781531575424E-6</v>
+        <v>1.686009374689346E-6</v>
       </c>
       <c r="I30" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="J30" t="n">
         <v>53.0</v>
@@ -5213,31 +5157,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E31" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F31" t="n">
-        <v>3.060965503915058E-7</v>
+        <v>2.8946546493160455E-7</v>
       </c>
       <c r="G31" t="n">
-        <v>3.091575158954208E-6</v>
+        <v>2.9139523469781525E-6</v>
       </c>
       <c r="H31" t="n">
-        <v>1.7828781531575424E-6</v>
+        <v>1.686009374689346E-6</v>
       </c>
       <c r="I31" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="J31" t="n">
         <v>44.0</v>
@@ -5245,31 +5189,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D32" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>4.398049493477793E-7</v>
+        <v>4.1577731036325793E-7</v>
       </c>
       <c r="G32" t="n">
-        <v>4.298738698463778E-6</v>
+        <v>4.050475733216255E-6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.4790363868160057E-6</v>
+        <v>2.3436004590934065E-6</v>
       </c>
       <c r="I32" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="J32" t="n">
         <v>45.0</v>
@@ -5277,31 +5221,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F33" t="n">
-        <v>7.880718254397758E-7</v>
+        <v>7.298793539707553E-7</v>
       </c>
       <c r="G33" t="n">
-        <v>7.462055097132877E-6</v>
+        <v>6.888236403099003E-6</v>
       </c>
       <c r="H33" t="n">
-        <v>4.303286941546144E-6</v>
+        <v>3.9855254197087305E-6</v>
       </c>
       <c r="I33" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="J33" t="n">
         <v>75.0</v>
@@ -5309,287 +5253,287 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E34" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3140600484447403E-6</v>
+        <v>1.0586097341029309E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.2065460444810798E-5</v>
+        <v>9.687883021184398E-6</v>
       </c>
       <c r="H34" t="n">
-        <v>6.958021309149183E-6</v>
+        <v>5.605397635122377E-6</v>
       </c>
       <c r="I34" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="J34" t="n">
-        <v>27.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D35" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="E35" t="s">
-        <v>590</v>
+        <v>196</v>
       </c>
       <c r="F35" t="n">
-        <v>1.4494626657145469E-6</v>
+        <v>1.2641927028245126E-6</v>
       </c>
       <c r="G35" t="n">
-        <v>1.291727022680905E-5</v>
+        <v>1.1229005772147141E-5</v>
       </c>
       <c r="H35" t="n">
-        <v>7.4492508516599E-6</v>
+        <v>6.497089432472728E-6</v>
       </c>
       <c r="I35" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="J35" t="n">
-        <v>68.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="E36" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F36" t="n">
-        <v>1.4960004099779167E-6</v>
+        <v>1.3503982374241025E-6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.2951089263523107E-5</v>
+        <v>1.1652007648630826E-5</v>
       </c>
       <c r="H36" t="n">
-        <v>7.4687539265062906E-6</v>
+        <v>6.7418378169143165E-6</v>
       </c>
       <c r="I36" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="J36" t="n">
-        <v>37.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C37" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D37" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E37" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F37" t="n">
-        <v>1.815438542160086E-6</v>
+        <v>1.4262234041152928E-6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.527994106318072E-5</v>
+        <v>1.1964429667856068E-5</v>
       </c>
       <c r="H37" t="n">
-        <v>8.811777719256556E-6</v>
+        <v>6.922604826992358E-6</v>
       </c>
       <c r="I37" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="J37" t="n">
-        <v>59.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D38" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="E38" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F38" t="n">
-        <v>2.1752453683285287E-6</v>
+        <v>1.7024254752015362E-6</v>
       </c>
       <c r="G38" t="n">
-        <v>1.7813495854149845E-5</v>
+        <v>1.3895472797590915E-5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0272851526103436E-5</v>
+        <v>8.039904093412662E-6</v>
       </c>
       <c r="I38" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="J38" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D39" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>588</v>
       </c>
       <c r="F39" t="n">
-        <v>2.904508430633484E-6</v>
+        <v>2.0419827947912234E-6</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3159633012682778E-5</v>
+        <v>1.6228389579656564E-5</v>
       </c>
       <c r="H39" t="n">
-        <v>1.3355911343079178E-5</v>
+        <v>9.389726978818369E-6</v>
       </c>
       <c r="I39" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="J39" t="n">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E40" t="s">
-        <v>594</v>
+        <v>169</v>
       </c>
       <c r="F40" t="n">
-        <v>3.480047607036337E-6</v>
+        <v>2.7137371551571222E-6</v>
       </c>
       <c r="G40" t="n">
-        <v>2.703729294697462E-5</v>
+        <v>2.10140672014731E-5</v>
       </c>
       <c r="H40" t="n">
-        <v>1.559211613408993E-5</v>
+        <v>1.215871437938144E-5</v>
       </c>
       <c r="I40" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="J40" t="n">
-        <v>35.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="E41" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F41" t="n">
-        <v>3.5748250802797593E-6</v>
+        <v>3.327124549585815E-6</v>
       </c>
       <c r="G41" t="n">
-        <v>2.707929998311918E-5</v>
+        <v>2.5119790349372904E-5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.5616341140169472E-5</v>
+        <v>1.4534280927138037E-5</v>
       </c>
       <c r="I41" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="J41" t="n">
-        <v>51.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C42" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E42" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F42" t="n">
-        <v>4.8708609804499275E-6</v>
+        <v>4.6153786386238445E-6</v>
       </c>
       <c r="G42" t="n">
-        <v>3.599685066039825E-5</v>
+        <v>3.399620363083905E-5</v>
       </c>
       <c r="H42" t="n">
-        <v>2.075899673311137E-5</v>
+        <v>1.9670163132517545E-5</v>
       </c>
       <c r="I42" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="J42" t="n">
         <v>47.0</v>
@@ -5597,31 +5541,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C43" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E43" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F43" t="n">
-        <v>5.261407768092937E-6</v>
+        <v>4.916432063603012E-6</v>
       </c>
       <c r="G43" t="n">
-        <v>3.795729889838476E-5</v>
+        <v>3.535148769543118E-5</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1889566152968107E-5</v>
+        <v>2.0454328886167924E-5</v>
       </c>
       <c r="I43" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="J43" t="n">
         <v>68.0</v>
@@ -5629,31 +5573,31 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C44" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D44" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E44" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F44" t="n">
-        <v>5.7748057827638265E-6</v>
+        <v>5.410897617089976E-6</v>
       </c>
       <c r="G44" t="n">
-        <v>4.0692236097149754E-5</v>
+        <v>3.800211814793425E-5</v>
       </c>
       <c r="H44" t="n">
-        <v>2.3466775029101476E-5</v>
+        <v>2.1987980524772E-5</v>
       </c>
       <c r="I44" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="J44" t="n">
         <v>64.0</v>
@@ -5661,31 +5605,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C45" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D45" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E45" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F45" t="n">
-        <v>1.1415423526763863E-5</v>
+        <v>1.0534138074478355E-5</v>
       </c>
       <c r="G45" t="n">
-        <v>7.760157214230309E-5</v>
+        <v>7.230249314755598E-5</v>
       </c>
       <c r="H45" t="n">
-        <v>4.47519922724416E-5</v>
+        <v>4.183413685079922E-5</v>
       </c>
       <c r="I45" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="J45" t="n">
         <v>94.0</v>
@@ -5693,31 +5637,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E46" t="s">
-        <v>600</v>
+        <v>186</v>
       </c>
       <c r="F46" t="n">
-        <v>1.1524985961728182E-5</v>
+        <v>1.1019379686198386E-5</v>
       </c>
       <c r="G46" t="n">
-        <v>7.760157214230309E-5</v>
+        <v>7.395228144959806E-5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.47519922724416E-5</v>
+        <v>4.278870240722649E-5</v>
       </c>
       <c r="I46" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="J46" t="n">
         <v>37.0</v>
@@ -5725,31 +5669,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D47" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E47" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F47" t="n">
-        <v>1.2936023208590133E-5</v>
+        <v>1.2351598613586547E-5</v>
       </c>
       <c r="G47" t="n">
-        <v>8.520902243919153E-5</v>
+        <v>8.109093002832907E-5</v>
       </c>
       <c r="H47" t="n">
-        <v>4.9139127062378995E-5</v>
+        <v>4.6919116014996955E-5</v>
       </c>
       <c r="I47" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="J47" t="n">
         <v>39.0</v>
@@ -5757,31 +5701,31 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C48" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D48" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E48" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F48" t="n">
-        <v>1.3641984480410977E-5</v>
+        <v>1.2832103915330083E-5</v>
       </c>
       <c r="G48" t="n">
-        <v>8.794726165030906E-5</v>
+        <v>8.245309324318478E-5</v>
       </c>
       <c r="H48" t="n">
-        <v>5.071824017353241E-5</v>
+        <v>4.7707262036837496E-5</v>
       </c>
       <c r="I48" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="J48" t="n">
         <v>61.0</v>
@@ -5789,31 +5733,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C49" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D49" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E49" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F49" t="n">
-        <v>1.846428302025386E-5</v>
+        <v>1.73283729189388E-5</v>
       </c>
       <c r="G49" t="n">
-        <v>1.165557865653525E-4</v>
+        <v>1.0902434628165662E-4</v>
       </c>
       <c r="H49" t="n">
-        <v>6.721646888952064E-5</v>
+        <v>6.308135755578598E-5</v>
       </c>
       <c r="I49" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="J49" t="n">
         <v>66.0</v>
@@ -5821,31 +5765,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D50" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F50" t="n">
-        <v>1.9255638707460244E-5</v>
+        <v>1.857806501707288E-5</v>
       </c>
       <c r="G50" t="n">
-        <v>1.1907058221143783E-4</v>
+        <v>1.1450154357461244E-4</v>
       </c>
       <c r="H50" t="n">
-        <v>6.866672449921377E-5</v>
+        <v>6.62504574185628E-5</v>
       </c>
       <c r="I50" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J50" t="n">
         <v>27.0</v>
@@ -5853,31 +5797,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C51" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D51" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E51" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F51" t="n">
-        <v>2.003529382084412E-5</v>
+        <v>1.9143979204248782E-5</v>
       </c>
       <c r="G51" t="n">
-        <v>1.2141388055431536E-4</v>
+        <v>1.1562963439366264E-4</v>
       </c>
       <c r="H51" t="n">
-        <v>7.001807945810786E-5</v>
+        <v>6.690316942958522E-5</v>
       </c>
       <c r="I51" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="J51" t="n">
         <v>39.0</v>
@@ -5891,25 +5835,25 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F52" t="n">
-        <v>2.13765498257848E-5</v>
+        <v>1.995512999510946E-5</v>
       </c>
       <c r="G52" t="n">
-        <v>1.270018548473097E-4</v>
+        <v>1.1816567173574621E-4</v>
       </c>
       <c r="H52" t="n">
-        <v>7.324060415026371E-5</v>
+        <v>6.83705176303028E-5</v>
       </c>
       <c r="I52" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="J52" t="n">
         <v>76.0</v>
@@ -5917,31 +5861,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C53" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D53" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E53" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F53" t="n">
-        <v>2.3063995514176596E-5</v>
+        <v>2.1918142013616388E-5</v>
       </c>
       <c r="G53" t="n">
-        <v>1.3439212770760593E-4</v>
+        <v>1.2729382477138747E-4</v>
       </c>
       <c r="H53" t="n">
-        <v>7.750249504763796E-5</v>
+        <v>7.36520561591158E-5</v>
       </c>
       <c r="I53" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="J53" t="n">
         <v>47.0</v>
@@ -5949,31 +5893,31 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C54" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D54" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E54" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F54" t="n">
-        <v>2.761360680423026E-5</v>
+        <v>2.579657947562124E-5</v>
       </c>
       <c r="G54" t="n">
-        <v>1.552122350104642E-4</v>
+        <v>1.4699183021957764E-4</v>
       </c>
       <c r="H54" t="n">
-        <v>8.950922706874086E-5</v>
+        <v>8.504929876768871E-5</v>
       </c>
       <c r="I54" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="J54" t="n">
         <v>76.0</v>
@@ -5981,31 +5925,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C55" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D55" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E55" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F55" t="n">
-        <v>2.7661586437508473E-5</v>
+        <v>2.6314756556032373E-5</v>
       </c>
       <c r="G55" t="n">
-        <v>1.552122350104642E-4</v>
+        <v>1.4716771259114402E-4</v>
       </c>
       <c r="H55" t="n">
-        <v>8.950922706874086E-5</v>
+        <v>8.5151064099442E-5</v>
       </c>
       <c r="I55" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="J55" t="n">
         <v>46.0</v>
@@ -6013,31 +5957,31 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C56" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D56" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E56" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F56" t="n">
-        <v>3.191328063348196E-5</v>
+        <v>3.013514996370819E-5</v>
       </c>
       <c r="G56" t="n">
-        <v>1.7581316421718242E-4</v>
+        <v>1.6546936889163407E-4</v>
       </c>
       <c r="H56" t="n">
-        <v>1.0138956143843071E-4</v>
+        <v>9.574038074594374E-5</v>
       </c>
       <c r="I56" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="J56" t="n">
         <v>58.0</v>
@@ -6045,31 +5989,31 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C57" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F57" t="n">
-        <v>3.6004134802548616E-5</v>
+        <v>3.3987472617324405E-5</v>
       </c>
       <c r="G57" t="n">
-        <v>1.9480808652093268E-4</v>
+        <v>1.8328958447199947E-4</v>
       </c>
       <c r="H57" t="n">
-        <v>1.1234372889517049E-4</v>
+        <v>1.0605113636232804E-4</v>
       </c>
       <c r="I57" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="J57" t="n">
         <v>59.0</v>
@@ -6077,95 +6021,95 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C58" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D58" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E58" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F58" t="n">
-        <v>4.2366024031560915E-5</v>
+        <v>3.9763860639256624E-5</v>
       </c>
       <c r="G58" t="n">
-        <v>2.193535155820051E-4</v>
+        <v>2.05633403429857E-4</v>
       </c>
       <c r="H58" t="n">
-        <v>1.264988139190997E-4</v>
+        <v>1.1897924353208877E-4</v>
       </c>
       <c r="I58" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="J58" t="n">
-        <v>53.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C59" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D59" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E59" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F59" t="n">
-        <v>4.264355969968301E-5</v>
+        <v>4.0155965775242396E-5</v>
       </c>
       <c r="G59" t="n">
-        <v>2.193535155820051E-4</v>
+        <v>2.05633403429857E-4</v>
       </c>
       <c r="H59" t="n">
-        <v>1.264988139190997E-4</v>
+        <v>1.1897924353208877E-4</v>
       </c>
       <c r="I59" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="J59" t="n">
-        <v>82.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D60" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E60" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F60" t="n">
-        <v>4.2712400723888785E-5</v>
+        <v>4.017341325285286E-5</v>
       </c>
       <c r="G60" t="n">
-        <v>2.193535155820051E-4</v>
+        <v>2.05633403429857E-4</v>
       </c>
       <c r="H60" t="n">
-        <v>1.264988139190997E-4</v>
+        <v>1.1897924353208877E-4</v>
       </c>
       <c r="I60" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="J60" t="n">
         <v>66.0</v>
@@ -6173,31 +6117,31 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C61" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D61" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E61" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F61" t="n">
-        <v>4.76068141907147E-5</v>
+        <v>4.536893396875576E-5</v>
       </c>
       <c r="G61" t="n">
-        <v>2.4041441166310922E-4</v>
+        <v>2.2835696764273732E-4</v>
       </c>
       <c r="H61" t="n">
-        <v>1.3864440623962524E-4</v>
+        <v>1.3212707085637643E-4</v>
       </c>
       <c r="I61" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="J61" t="n">
         <v>45.0</v>
@@ -6205,31 +6149,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D62" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E62" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F62" t="n">
-        <v>5.9312835022271154E-5</v>
+        <v>5.446914081824068E-5</v>
       </c>
       <c r="G62" t="n">
-        <v>2.946194919958715E-4</v>
+        <v>2.696668938870276E-4</v>
       </c>
       <c r="H62" t="n">
-        <v>1.6990389324757568E-4</v>
+        <v>1.560289452256765E-4</v>
       </c>
       <c r="I62" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J62" t="n">
         <v>117.0</v>
@@ -6237,31 +6181,31 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D63" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E63" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F63" t="n">
-        <v>6.0726946793585645E-5</v>
+        <v>5.723645906965514E-5</v>
       </c>
       <c r="G63" t="n">
-        <v>2.967784657815556E-4</v>
+        <v>2.7879694579090083E-4</v>
       </c>
       <c r="H63" t="n">
-        <v>1.711489502162176E-4</v>
+        <v>1.6131158243739823E-4</v>
       </c>
       <c r="I63" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="J63" t="n">
         <v>64.0</v>
@@ -6269,31 +6213,31 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C64" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D64" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F64" t="n">
-        <v>8.405877069828629E-5</v>
+        <v>8.118875744793485E-5</v>
       </c>
       <c r="G64" t="n">
-        <v>4.0428265907271026E-4</v>
+        <v>3.891905515758147E-4</v>
       </c>
       <c r="H64" t="n">
-        <v>2.3314546258839639E-4</v>
+        <v>2.2518519191908417E-4</v>
       </c>
       <c r="I64" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="J64" t="n">
         <v>28.0</v>
@@ -6301,31 +6245,31 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D65" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E65" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F65" t="n">
-        <v>9.735445860644579E-5</v>
+        <v>9.303821939293282E-5</v>
       </c>
       <c r="G65" t="n">
-        <v>4.609125149648918E-4</v>
+        <v>4.390240977604017E-4</v>
       </c>
       <c r="H65" t="n">
-        <v>2.658032915899671E-4</v>
+        <v>2.540188226846521E-4</v>
       </c>
       <c r="I65" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="J65" t="n">
         <v>43.0</v>
@@ -6339,25 +6283,25 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4097666332732364E-4</v>
+        <v>1.3032989852458058E-4</v>
       </c>
       <c r="G66" t="n">
-        <v>6.571681382796779E-4</v>
+        <v>6.055327592988205E-4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.789817993900522E-4</v>
+        <v>3.5036053692437863E-4</v>
       </c>
       <c r="I66" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="J66" t="n">
         <v>110.0</v>
@@ -6365,31 +6309,31 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D67" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="E67" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F67" t="n">
-        <v>1.432386205436488E-4</v>
+        <v>1.3657254603348105E-4</v>
       </c>
       <c r="G67" t="n">
-        <v>6.575954852231149E-4</v>
+        <v>6.249228621532012E-4</v>
       </c>
       <c r="H67" t="n">
-        <v>3.7922824577744333E-4</v>
+        <v>3.6157962745706314E-4</v>
       </c>
       <c r="I67" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="J67" t="n">
         <v>48.0</v>
@@ -6397,31 +6341,31 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D68" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E68" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F68" t="n">
-        <v>1.512018805819961E-4</v>
+        <v>1.459414452713256E-4</v>
       </c>
       <c r="G68" t="n">
-        <v>6.837935793484303E-4</v>
+        <v>6.578256189841841E-4</v>
       </c>
       <c r="H68" t="n">
-        <v>3.9433640497425537E-4</v>
+        <v>3.806171235670079E-4</v>
       </c>
       <c r="I68" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="J68" t="n">
         <v>30.0</v>
@@ -6429,31 +6373,31 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C69" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D69" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F69" t="n">
-        <v>1.5909522018520855E-4</v>
+        <v>1.5093584105117436E-4</v>
       </c>
       <c r="G69" t="n">
-        <v>7.089095840605616E-4</v>
+        <v>6.703327058449215E-4</v>
       </c>
       <c r="H69" t="n">
-        <v>4.0882053484124796E-4</v>
+        <v>3.8785370920270813E-4</v>
       </c>
       <c r="I69" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="J69" t="n">
         <v>57.0</v>
@@ -6461,31 +6405,31 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D70" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E70" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F70" t="n">
-        <v>1.9377544209311E-4</v>
+        <v>1.8697149993448516E-4</v>
       </c>
       <c r="G70" t="n">
-        <v>8.509269413653961E-4</v>
+        <v>8.183390286987611E-4</v>
       </c>
       <c r="H70" t="n">
-        <v>4.907204178101641E-4</v>
+        <v>4.73489992206324E-4</v>
       </c>
       <c r="I70" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="J70" t="n">
         <v>31.0</v>
@@ -6493,31 +6437,31 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C71" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D71" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F71" t="n">
-        <v>2.025671075860074E-4</v>
+        <v>1.943907214028294E-4</v>
       </c>
       <c r="G71" t="n">
-        <v>8.768261942651462E-4</v>
+        <v>8.38657112337921E-4</v>
       </c>
       <c r="H71" t="n">
-        <v>5.056562384853718E-4</v>
+        <v>4.852460113213486E-4</v>
       </c>
       <c r="I71" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="J71" t="n">
         <v>39.0</v>
@@ -6525,31 +6469,31 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C72" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D72" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E72" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F72" t="n">
-        <v>2.1524942198032895E-4</v>
+        <v>2.081936756606316E-4</v>
       </c>
       <c r="G72" t="n">
-        <v>9.185996459160517E-4</v>
+        <v>8.85556197880433E-4</v>
       </c>
       <c r="H72" t="n">
-        <v>5.297465388989563E-4</v>
+        <v>5.123817666369882E-4</v>
       </c>
       <c r="I72" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="J72" t="n">
         <v>28.0</v>
@@ -6557,31 +6501,31 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C73" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D73" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E73" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F73" t="n">
-        <v>2.3180551308898522E-4</v>
+        <v>2.192121088293625E-4</v>
       </c>
       <c r="G73" t="n">
-        <v>9.755148675828127E-4</v>
+        <v>9.194730120342706E-4</v>
       </c>
       <c r="H73" t="n">
-        <v>5.625689352744378E-4</v>
+        <v>5.320059951121957E-4</v>
       </c>
       <c r="I73" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="J73" t="n">
         <v>65.0</v>
@@ -6589,31 +6533,31 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D74" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E74" t="s">
-        <v>617</v>
+        <v>180</v>
       </c>
       <c r="F74" t="n">
-        <v>2.4339649206238728E-4</v>
+        <v>2.3381397529350942E-4</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0010102621519849774</v>
+        <v>9.6728521285808E-4</v>
       </c>
       <c r="H74" t="n">
-        <v>5.82607320581922E-4</v>
+        <v>5.596700778474776E-4</v>
       </c>
       <c r="I74" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="J74" t="n">
         <v>38.0</v>
@@ -6621,127 +6565,127 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C75" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="E75" t="s">
-        <v>618</v>
+        <v>186</v>
       </c>
       <c r="F75" t="n">
-        <v>2.904010338039507E-4</v>
+        <v>2.3802281716573238E-4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0011817612041663517</v>
+        <v>9.713904160006915E-4</v>
       </c>
       <c r="H75" t="n">
-        <v>6.815089799951862E-4</v>
+        <v>5.620453435207905E-4</v>
       </c>
       <c r="I75" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="J75" t="n">
-        <v>58.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C76" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D76" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E76" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F76" t="n">
-        <v>2.9251514954612665E-4</v>
+        <v>2.75820188576757E-4</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0011817612041663517</v>
+        <v>0.0011106359593357415</v>
       </c>
       <c r="H76" t="n">
-        <v>6.815089799951862E-4</v>
+        <v>6.426126498770761E-4</v>
       </c>
       <c r="I76" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="J76" t="n">
-        <v>37.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C77" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D77" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E77" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F77" t="n">
-        <v>2.970384838020376E-4</v>
+        <v>2.812896716606558E-4</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001184245534105492</v>
+        <v>0.0011177563268620796</v>
       </c>
       <c r="H77" t="n">
-        <v>6.829416663592555E-4</v>
+        <v>6.467324860895965E-4</v>
       </c>
       <c r="I77" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="J77" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C78" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D78" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E78" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F78" t="n">
-        <v>3.51623409960135E-4</v>
+        <v>3.3847937297164666E-4</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0013836609508820895</v>
+        <v>0.001327542475810874</v>
       </c>
       <c r="H78" t="n">
-        <v>7.979423930742638E-4</v>
+        <v>7.681145032575988E-4</v>
       </c>
       <c r="I78" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J78" t="n">
         <v>36.0</v>
@@ -6749,31 +6693,31 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D79" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E79" t="s">
-        <v>621</v>
+        <v>188</v>
       </c>
       <c r="F79" t="n">
-        <v>4.506336271130608E-4</v>
+        <v>4.329195497088773E-4</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0017505383207084284</v>
+        <v>0.0016761756924625762</v>
       </c>
       <c r="H79" t="n">
-        <v>0.00100951662754073</v>
+        <v>9.698332692533554E-4</v>
       </c>
       <c r="I79" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="J79" t="n">
         <v>40.0</v>
@@ -6781,31 +6725,31 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C80" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D80" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E80" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F80" t="n">
-        <v>4.766726813717618E-4</v>
+        <v>4.623310406496984E-4</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0018282509171600484</v>
+        <v>0.0017673920794456825</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0010543326463386068</v>
+        <v>0.0010226109626628906</v>
       </c>
       <c r="I80" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J80" t="n">
         <v>26.0</v>
@@ -6813,255 +6757,255 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>465</v>
       </c>
       <c r="D81" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>565</v>
       </c>
       <c r="F81" t="n">
-        <v>5.269996349961057E-4</v>
+        <v>5.692864490950491E-4</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0019960111175477504</v>
+        <v>0.0021490563453338105</v>
       </c>
       <c r="H81" t="n">
-        <v>0.001151078150123073</v>
+        <v>0.0012434414546023443</v>
       </c>
       <c r="I81" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="J81" t="n">
-        <v>72.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C82" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D82" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="E82" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="F82" t="n">
-        <v>5.980886850861166E-4</v>
+        <v>6.093027684712258E-4</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0022372947108776956</v>
+        <v>0.0022717214330655582</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0012902238040844102</v>
+        <v>0.0013144153289957568</v>
       </c>
       <c r="I82" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="J82" t="n">
-        <v>58.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C83" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D83" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="E83" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F83" t="n">
-        <v>6.380166819284381E-4</v>
+        <v>7.915034721050207E-4</v>
       </c>
       <c r="G83" t="n">
-        <v>0.002357549446638009</v>
+        <v>0.0029150493728745887</v>
       </c>
       <c r="H83" t="n">
-        <v>0.00135957341720309</v>
+        <v>0.0016866441125729585</v>
       </c>
       <c r="I83" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="J83" t="n">
-        <v>52.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="E84" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="F84" t="n">
-        <v>8.330973037856509E-4</v>
+        <v>0.0010949470944996967</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00304130702466328</v>
+        <v>0.003984024367938655</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0017538890606013705</v>
+        <v>0.0023051517778940986</v>
       </c>
       <c r="I84" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="J84" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C85" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D85" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="E85" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F85" t="n">
-        <v>0.001150125931509068</v>
+        <v>0.0013233578556828649</v>
       </c>
       <c r="G85" t="n">
-        <v>0.004148668538657709</v>
+        <v>0.0047577865763836335</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0023924925392293894</v>
+        <v>0.0027528496747287667</v>
       </c>
       <c r="I85" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="J85" t="n">
-        <v>62.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C86" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D86" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="E86" t="s">
-        <v>626</v>
+        <v>209</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0013832038511277403</v>
+        <v>0.0014372449640863841</v>
       </c>
       <c r="G86" t="n">
-        <v>0.004930714904608298</v>
+        <v>0.0051064468135775054</v>
       </c>
       <c r="H86" t="n">
-        <v>0.002843490269810587</v>
+        <v>0.002954584074778202</v>
       </c>
       <c r="I86" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="J86" t="n">
-        <v>53.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C87" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D87" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E87" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001509240112098825</v>
+        <v>0.0014696595889188025</v>
       </c>
       <c r="G87" t="n">
-        <v>0.005177845178507616</v>
+        <v>0.005112530703758037</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0029860076415920245</v>
+        <v>0.002958104206426749</v>
       </c>
       <c r="I87" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="J87" t="n">
-        <v>47.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C88" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D88" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0015111645445740449</v>
+        <v>0.0014728151365130768</v>
       </c>
       <c r="G88" t="n">
-        <v>0.005177845178507616</v>
+        <v>0.005112530703758037</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0029860076415920245</v>
+        <v>0.002958104206426749</v>
       </c>
       <c r="I88" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="J88" t="n">
         <v>22.0</v>
@@ -7069,351 +7013,351 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C89" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D89" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>561</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0015129350621436628</v>
+        <v>0.001658673784866513</v>
       </c>
       <c r="G89" t="n">
-        <v>0.005177845178507616</v>
+        <v>0.00562830879808637</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0029860076415920245</v>
+        <v>0.003256532800565833</v>
       </c>
       <c r="I89" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="J89" t="n">
-        <v>69.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C90" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D90" t="s">
         <v>532</v>
       </c>
       <c r="E90" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0015208852174494318</v>
+        <v>0.001658673784866513</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005177845178507616</v>
+        <v>0.00562830879808637</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0029860076415920245</v>
+        <v>0.003256532800565833</v>
       </c>
       <c r="I90" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="J90" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D91" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E91" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F91" t="n">
-        <v>0.001719926546619004</v>
+        <v>0.0017659445985766056</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0057267883914896515</v>
+        <v>0.0058606073491223615</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0033025772902111586</v>
+        <v>0.003390940466902447</v>
       </c>
       <c r="I91" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="J91" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D92" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E92" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F92" t="n">
-        <v>0.001719926546619004</v>
+        <v>0.0017659445985766056</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0057267883914896515</v>
+        <v>0.0058606073491223615</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0033025772902111586</v>
+        <v>0.003390940466902447</v>
       </c>
       <c r="I92" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="J92" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C93" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D93" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E93" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0018256270717093685</v>
+        <v>0.0021621901525885655</v>
       </c>
       <c r="G93" t="n">
-        <v>0.005948010782020846</v>
+        <v>0.007077200846701215</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0034301538642190735</v>
+        <v>0.004094860022838626</v>
       </c>
       <c r="I93" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="J93" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D94" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="E94" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0018256270717093685</v>
+        <v>0.0021794029097457384</v>
       </c>
       <c r="G94" t="n">
-        <v>0.005948010782020846</v>
+        <v>0.007077200846701215</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0034301538642190735</v>
+        <v>0.004094860022838626</v>
       </c>
       <c r="I94" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="J94" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C95" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D95" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="E95" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0022404761020593518</v>
+        <v>0.002231099704043671</v>
       </c>
       <c r="G95" t="n">
-        <v>0.007221960201318974</v>
+        <v>0.007168001176821155</v>
       </c>
       <c r="H95" t="n">
-        <v>0.004164826796661281</v>
+        <v>0.004147396986240195</v>
       </c>
       <c r="I95" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J95" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C96" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D96" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="E96" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002290808758575543</v>
+        <v>0.002272864712047094</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00730647425103568</v>
+        <v>0.007225317295139183</v>
       </c>
       <c r="H96" t="n">
-        <v>0.004213565140427038</v>
+        <v>0.004180560024374711</v>
       </c>
       <c r="I96" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="J96" t="n">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C97" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D97" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="E97" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00235983613902371</v>
+        <v>0.002428636753894675</v>
       </c>
       <c r="G97" t="n">
-        <v>0.007448232813793584</v>
+        <v>0.007640086454960332</v>
       </c>
       <c r="H97" t="n">
-        <v>0.004295315779363331</v>
+        <v>0.004420544968711799</v>
       </c>
       <c r="I97" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="J97" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C98" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D98" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="E98" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F98" t="n">
-        <v>0.002522375099012802</v>
+        <v>0.002551139223615232</v>
       </c>
       <c r="G98" t="n">
-        <v>0.00787917170103999</v>
+        <v>0.00786167393399796</v>
       </c>
       <c r="H98" t="n">
-        <v>0.004543833602128325</v>
+        <v>0.004548755221483658</v>
       </c>
       <c r="I98" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="J98" t="n">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C99" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D99" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E99" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F99" t="n">
-        <v>0.002631970273995226</v>
+        <v>0.002551139223615232</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008055424171924784</v>
+        <v>0.00786167393399796</v>
       </c>
       <c r="H99" t="n">
-        <v>0.004645476506998485</v>
+        <v>0.004548755221483658</v>
       </c>
       <c r="I99" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="J99" t="n">
         <v>32.0</v>
@@ -7421,639 +7365,639 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>487</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="E100" t="s">
-        <v>629</v>
+        <v>215</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002631970273995226</v>
+        <v>0.0027926469210975942</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008055424171924784</v>
+        <v>0.00851898353708559</v>
       </c>
       <c r="H100" t="n">
-        <v>0.004645476506998485</v>
+        <v>0.004929073778864442</v>
       </c>
       <c r="I100" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="J100" t="n">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>372</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>372</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>484</v>
       </c>
       <c r="D101" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="E101" t="s">
-        <v>218</v>
+        <v>621</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002891752025573613</v>
+        <v>0.003718560838445766</v>
       </c>
       <c r="G101" t="n">
-        <v>0.008762008637488047</v>
+        <v>0.011230053732106213</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005052956171002313</v>
+        <v>0.006497695780863129</v>
       </c>
       <c r="I101" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="J101" t="n">
-        <v>39.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D102" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E102" t="s">
-        <v>630</v>
+        <v>216</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0037955935164313797</v>
+        <v>0.0039441407384378895</v>
       </c>
       <c r="G102" t="n">
-        <v>0.011386780549294139</v>
+        <v>0.011698138902434799</v>
       </c>
       <c r="H102" t="n">
-        <v>0.006566633910657729</v>
+        <v>0.00676852930569598</v>
       </c>
       <c r="I102" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="J102" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>489</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E103" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F103" t="n">
-        <v>0.004037179844300676</v>
+        <v>0.0039510270465177135</v>
       </c>
       <c r="G103" t="n">
-        <v>0.011992798949246127</v>
+        <v>0.011698138902434799</v>
       </c>
       <c r="H103" t="n">
-        <v>0.006916118205922727</v>
+        <v>0.00676852930569598</v>
       </c>
       <c r="I103" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="J103" t="n">
-        <v>21.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>486</v>
       </c>
       <c r="D104" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="E104" t="s">
-        <v>212</v>
+        <v>622</v>
       </c>
       <c r="F104" t="n">
-        <v>0.004138874536944772</v>
+        <v>0.00476966300367663</v>
       </c>
       <c r="G104" t="n">
-        <v>0.012175524123245301</v>
+        <v>0.013984837156411089</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0070214938490836196</v>
+        <v>0.008091610205521927</v>
       </c>
       <c r="I104" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="J104" t="n">
-        <v>67.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B105" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C105" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D105" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E105" t="s">
-        <v>631</v>
+        <v>169</v>
       </c>
       <c r="F105" t="n">
-        <v>0.004943457010561437</v>
+        <v>0.004902932573766081</v>
       </c>
       <c r="G105" t="n">
-        <v>0.014402571867308802</v>
+        <v>0.014237361896897657</v>
       </c>
       <c r="H105" t="n">
-        <v>0.00830580833758298</v>
+        <v>0.008237720721104956</v>
       </c>
       <c r="I105" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="J105" t="n">
-        <v>44.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B106" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D106" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="E106" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F106" t="n">
-        <v>0.005106297198509224</v>
+        <v>0.005254469773524539</v>
       </c>
       <c r="G106" t="n">
-        <v>0.014735314772840903</v>
+        <v>0.015112855920042008</v>
       </c>
       <c r="H106" t="n">
-        <v>0.008497697593509084</v>
+        <v>0.008744280525364146</v>
       </c>
       <c r="I106" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="J106" t="n">
-        <v>55.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C107" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D107" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="E107" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F107" t="n">
-        <v>0.005417127328265197</v>
+        <v>0.006423770582051011</v>
       </c>
       <c r="G107" t="n">
-        <v>0.015484807362871271</v>
+        <v>0.01830168599791892</v>
       </c>
       <c r="H107" t="n">
-        <v>0.00892992191153945</v>
+        <v>0.01058933382939889</v>
       </c>
       <c r="I107" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="J107" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C108" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D108" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="E108" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F108" t="n">
-        <v>0.006593616132577464</v>
+        <v>0.006960587248665449</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0186716419455231</v>
+        <v>0.019643163889752364</v>
       </c>
       <c r="H108" t="n">
-        <v>0.010767735150101907</v>
+        <v>0.011365511347852535</v>
       </c>
       <c r="I108" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="J108" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>382</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>494</v>
+        <v>109</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="E109" t="s">
-        <v>620</v>
+        <v>208</v>
       </c>
       <c r="F109" t="n">
-        <v>0.007159164299033779</v>
+        <v>0.007024707616202832</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02008543317228921</v>
+        <v>0.019643163889752364</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01158305334931391</v>
+        <v>0.011365511347852535</v>
       </c>
       <c r="I109" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="J109" t="n">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>379</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>379</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>491</v>
       </c>
       <c r="D110" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>576</v>
       </c>
       <c r="F110" t="n">
-        <v>0.007305933850946445</v>
+        <v>0.007488945276221128</v>
       </c>
       <c r="G110" t="n">
-        <v>0.020309155567309844</v>
+        <v>0.020749187829530096</v>
       </c>
       <c r="H110" t="n">
-        <v>0.011712071649030514</v>
+        <v>0.01200545548867897</v>
       </c>
       <c r="I110" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="J110" t="n">
-        <v>55.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C111" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D111" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E111" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F111" t="n">
-        <v>0.007705175566881057</v>
+        <v>0.007912156374358487</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02122425633422691</v>
+        <v>0.021708039848992607</v>
       </c>
       <c r="H111" t="n">
-        <v>0.012239800422031152</v>
+        <v>0.012560246130821795</v>
       </c>
       <c r="I111" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="J111" t="n">
-        <v>32.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>384</v>
+        <v>36</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>496</v>
+        <v>94</v>
       </c>
       <c r="D112" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="E112" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="F112" t="n">
-        <v>0.007829524435436263</v>
+        <v>0.007978782858404566</v>
       </c>
       <c r="G112" t="n">
-        <v>0.021372485621055745</v>
+        <v>0.021708039848992607</v>
       </c>
       <c r="H112" t="n">
-        <v>0.012325282657965097</v>
+        <v>0.012560246130821795</v>
       </c>
       <c r="I112" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="J112" t="n">
-        <v>36.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D113" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="E113" t="s">
-        <v>574</v>
+        <v>204</v>
       </c>
       <c r="F113" t="n">
-        <v>0.008275221128360247</v>
+        <v>0.00832574354976097</v>
       </c>
       <c r="G113" t="n">
-        <v>0.022292297184517657</v>
+        <v>0.022449772785962614</v>
       </c>
       <c r="H113" t="n">
-        <v>0.012855728096682058</v>
+        <v>0.012989411929138356</v>
       </c>
       <c r="I113" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="J113" t="n">
-        <v>71.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="C114" t="s">
-        <v>97</v>
+        <v>494</v>
       </c>
       <c r="D114" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E114" t="s">
-        <v>200</v>
+        <v>602</v>
       </c>
       <c r="F114" t="n">
-        <v>0.008313628983004934</v>
+        <v>0.008429160143657988</v>
       </c>
       <c r="G114" t="n">
-        <v>0.022292297184517657</v>
+        <v>0.022527489941457632</v>
       </c>
       <c r="H114" t="n">
-        <v>0.012855728096682058</v>
+        <v>0.01303437898320658</v>
       </c>
       <c r="I114" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="J114" t="n">
-        <v>61.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>386</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>386</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="E115" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="F115" t="n">
-        <v>0.008554615909486904</v>
+        <v>0.009965213254705394</v>
       </c>
       <c r="G115" t="n">
-        <v>0.022737268601530983</v>
+        <v>0.026399073709833586</v>
       </c>
       <c r="H115" t="n">
-        <v>0.013112338328484081</v>
+        <v>0.01527447276344502</v>
       </c>
       <c r="I115" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="J115" t="n">
-        <v>30.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D116" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E116" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="F116" t="n">
-        <v>0.008695584796829432</v>
+        <v>0.011236330296486647</v>
       </c>
       <c r="G116" t="n">
-        <v>0.022910975595124502</v>
+        <v>0.029367677465586845</v>
       </c>
       <c r="H116" t="n">
-        <v>0.01321251328396966</v>
+        <v>0.016992103378485248</v>
       </c>
       <c r="I116" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J116" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>384</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>384</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>496</v>
       </c>
       <c r="D117" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E117" t="s">
-        <v>220</v>
+        <v>583</v>
       </c>
       <c r="F117" t="n">
-        <v>0.010453062567886357</v>
+        <v>0.01128029995366912</v>
       </c>
       <c r="G117" t="n">
-        <v>0.027304120328185917</v>
+        <v>0.029367677465586845</v>
       </c>
       <c r="H117" t="n">
-        <v>0.01574599261587237</v>
+        <v>0.016992103378485248</v>
       </c>
       <c r="I117" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J117" t="n">
-        <v>83.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D118" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E118" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="F118" t="n">
-        <v>0.011636506834723209</v>
+        <v>0.01208404290868601</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0301355689822319</v>
+        <v>0.03119129024293312</v>
       </c>
       <c r="H118" t="n">
-        <v>0.017378858610562778</v>
+        <v>0.018047243570327286</v>
       </c>
       <c r="I118" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J118" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C119" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D119" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E119" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F119" t="n">
-        <v>0.012473656206551267</v>
+        <v>0.014560842912224693</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03202981212360198</v>
+        <v>0.037265886097388616</v>
       </c>
       <c r="H119" t="n">
-        <v>0.018471248263046476</v>
+        <v>0.02156199753282158</v>
       </c>
       <c r="I119" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="J119" t="n">
         <v>42.0</v>
@@ -8061,65 +8005,33 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C120" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="E120" t="s">
-        <v>631</v>
+        <v>586</v>
       </c>
       <c r="F120" t="n">
-        <v>0.015020182205610938</v>
+        <v>0.018107884344856884</v>
       </c>
       <c r="G120" t="n">
-        <v>0.038244665615967344</v>
+        <v>0.0459544627911494</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0220552874491943</v>
+        <v>0.026589197711156507</v>
       </c>
       <c r="I120" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="J120" t="n">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>391</v>
-      </c>
-      <c r="B121" t="s">
-        <v>391</v>
-      </c>
-      <c r="C121" t="s">
-        <v>503</v>
-      </c>
-      <c r="D121" t="s">
-        <v>528</v>
-      </c>
-      <c r="E121" t="s">
-        <v>591</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.01853728780093513</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0468066516973612</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.02699289276276519</v>
-      </c>
-      <c r="I121" t="s">
-        <v>752</v>
-      </c>
-      <c r="J121" t="n">
         <v>27.0</v>
       </c>
     </row>
